--- a/final data set.xlsx
+++ b/final data set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8D9A37-72F8-0441-AF60-3F016C9F4DE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09E40EC-C8A9-654B-B0E7-0E96E46E213C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="25440" windowHeight="14420" xr2:uid="{DC3E5AA7-7033-AF48-8182-68477F67646B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="260">
   <si>
     <t>STATE</t>
   </si>
@@ -807,6 +807,9 @@
   </si>
   <si>
     <t>2010.pop</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A7E2-1E9C-554D-B7C1-C1CBE767890F}">
   <dimension ref="A1:AJ332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AE301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21692,6 +21695,9 @@
       </c>
     </row>
     <row r="302" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>259</v>
+      </c>
       <c r="D302" s="7"/>
     </row>
     <row r="303" spans="1:31" x14ac:dyDescent="0.2">

--- a/final data set.xlsx
+++ b/final data set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09E40EC-C8A9-654B-B0E7-0E96E46E213C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D951BD-0E41-824E-873A-57408E1ECB0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="25440" windowHeight="14420" xr2:uid="{DC3E5AA7-7033-AF48-8182-68477F67646B}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>2010.5quin</t>
   </si>
   <si>
-    <t>COUNTYNUM</t>
-  </si>
-  <si>
     <t>Adams</t>
   </si>
   <si>
@@ -810,6 +807,9 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>CNTY_NUM</t>
   </si>
 </sst>
 </file>
@@ -819,7 +819,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -846,6 +846,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -867,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -876,6 +882,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A7E2-1E9C-554D-B7C1-C1CBE767890F}">
   <dimension ref="A1:AJ332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1233,19 +1240,19 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L1" t="s">
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -1313,10 +1320,10 @@
     </row>
     <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1330,6 +1337,15 @@
       <c r="F2">
         <v>0.38</v>
       </c>
+      <c r="G2" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="I2" s="8">
+        <v>10.1</v>
+      </c>
       <c r="J2" s="2">
         <v>11655</v>
       </c>
@@ -1381,10 +1397,10 @@
     </row>
     <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1398,6 +1414,15 @@
       <c r="F3">
         <v>0.42799999999999999</v>
       </c>
+      <c r="G3" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="I3" s="8">
+        <v>10.7</v>
+      </c>
       <c r="J3" s="2">
         <v>14631</v>
       </c>
@@ -1449,10 +1474,10 @@
     </row>
     <row r="4" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1466,6 +1491,15 @@
       <c r="F4">
         <v>0.42699999999999999</v>
       </c>
+      <c r="G4" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I4" s="8">
+        <v>9.5</v>
+      </c>
       <c r="J4" s="2">
         <v>14216</v>
       </c>
@@ -1517,10 +1551,10 @@
     </row>
     <row r="5" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1534,6 +1568,15 @@
       <c r="F5">
         <v>0.36399999999999999</v>
       </c>
+      <c r="G5" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="J5" s="2">
         <v>12024</v>
       </c>
@@ -1585,10 +1628,10 @@
     </row>
     <row r="6" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1602,6 +1645,15 @@
       <c r="F6">
         <v>0.42399999999999999</v>
       </c>
+      <c r="G6" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I6" s="8">
+        <v>14.4</v>
+      </c>
       <c r="J6" s="2">
         <v>11151</v>
       </c>
@@ -1653,10 +1705,10 @@
     </row>
     <row r="7" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1670,6 +1722,15 @@
       <c r="F7">
         <v>0.51400000000000001</v>
       </c>
+      <c r="G7" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I7" s="8">
+        <v>7.6</v>
+      </c>
       <c r="J7" s="2">
         <v>16674</v>
       </c>
@@ -1721,10 +1782,10 @@
     </row>
     <row r="8" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1738,6 +1799,15 @@
       <c r="F8">
         <v>0.41799999999999998</v>
       </c>
+      <c r="G8" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="8">
+        <v>10.4</v>
+      </c>
       <c r="J8" s="2">
         <v>13048</v>
       </c>
@@ -1789,10 +1859,10 @@
     </row>
     <row r="9" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1806,6 +1876,15 @@
       <c r="F9">
         <v>0.39700000000000002</v>
       </c>
+      <c r="G9" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="I9" s="8">
+        <v>9.9</v>
+      </c>
       <c r="J9" s="2">
         <v>12165</v>
       </c>
@@ -1857,10 +1936,10 @@
     </row>
     <row r="10" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1874,6 +1953,15 @@
       <c r="F10">
         <v>0.41399999999999998</v>
       </c>
+      <c r="G10" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>10.8</v>
+      </c>
       <c r="J10" s="2">
         <v>11860</v>
       </c>
@@ -1925,10 +2013,10 @@
     </row>
     <row r="11" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1942,6 +2030,15 @@
       <c r="F11">
         <v>0.39400000000000002</v>
       </c>
+      <c r="G11" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9.5</v>
+      </c>
       <c r="J11" s="2">
         <v>12068</v>
       </c>
@@ -1993,10 +2090,10 @@
     </row>
     <row r="12" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2010,6 +2107,15 @@
       <c r="F12">
         <v>0.36699999999999999</v>
       </c>
+      <c r="G12" s="8">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>11.1</v>
+      </c>
       <c r="J12" s="2">
         <v>10538</v>
       </c>
@@ -2061,10 +2167,10 @@
     </row>
     <row r="13" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2078,6 +2184,15 @@
       <c r="F13">
         <v>0.38600000000000001</v>
       </c>
+      <c r="G13" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8">
+        <v>10.1</v>
+      </c>
       <c r="J13" s="2">
         <v>11849</v>
       </c>
@@ -2129,10 +2244,10 @@
     </row>
     <row r="14" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -2146,6 +2261,15 @@
       <c r="F14">
         <v>0.41099999999999998</v>
       </c>
+      <c r="G14" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="H14" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I14" s="8">
+        <v>12.9</v>
+      </c>
       <c r="J14" s="2">
         <v>8837</v>
       </c>
@@ -2197,10 +2321,10 @@
     </row>
     <row r="15" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2214,6 +2338,15 @@
       <c r="F15">
         <v>0.39600000000000002</v>
       </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>6.5</v>
+      </c>
       <c r="J15" s="2">
         <v>10176</v>
       </c>
@@ -2265,10 +2398,10 @@
     </row>
     <row r="16" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -2282,6 +2415,15 @@
       <c r="F16">
         <v>0.378</v>
       </c>
+      <c r="G16" s="8">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>11.9</v>
+      </c>
       <c r="J16" s="2">
         <v>12542</v>
       </c>
@@ -2333,10 +2475,10 @@
     </row>
     <row r="17" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2350,6 +2492,15 @@
       <c r="F17">
         <v>0.40799999999999997</v>
       </c>
+      <c r="G17" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I17" s="8">
+        <v>10.9</v>
+      </c>
       <c r="J17" s="2">
         <v>11930</v>
       </c>
@@ -2401,10 +2552,10 @@
     </row>
     <row r="18" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -2418,6 +2569,15 @@
       <c r="F18">
         <v>0.376</v>
       </c>
+      <c r="G18" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I18" s="8">
+        <v>11.6</v>
+      </c>
       <c r="J18" s="2">
         <v>12665</v>
       </c>
@@ -2469,10 +2629,10 @@
     </row>
     <row r="19" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -2486,6 +2646,15 @@
       <c r="F19">
         <v>0.44900000000000001</v>
       </c>
+      <c r="G19" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I19" s="8">
+        <v>11.6</v>
+      </c>
       <c r="J19" s="2">
         <v>12168</v>
       </c>
@@ -2537,10 +2706,10 @@
     </row>
     <row r="20" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -2554,6 +2723,15 @@
       <c r="F20">
         <v>0.40200000000000002</v>
       </c>
+      <c r="G20" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I20" s="8">
+        <v>7.5</v>
+      </c>
       <c r="J20" s="2">
         <v>12942</v>
       </c>
@@ -2605,10 +2783,10 @@
     </row>
     <row r="21" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2622,6 +2800,15 @@
       <c r="F21">
         <v>0.42799999999999999</v>
       </c>
+      <c r="G21" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I21" s="8">
+        <v>13.3</v>
+      </c>
       <c r="J21" s="2">
         <v>13825</v>
       </c>
@@ -2673,10 +2860,10 @@
     </row>
     <row r="22" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -2690,6 +2877,15 @@
       <c r="F22">
         <v>0.42299999999999999</v>
       </c>
+      <c r="G22" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I22" s="8">
+        <v>14.6</v>
+      </c>
       <c r="J22" s="2">
         <v>11577</v>
       </c>
@@ -2741,10 +2937,10 @@
     </row>
     <row r="23" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -2758,6 +2954,15 @@
       <c r="F23">
         <v>0.41499999999999998</v>
       </c>
+      <c r="G23" s="8">
+        <v>5</v>
+      </c>
+      <c r="H23" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I23" s="8">
+        <v>8.9</v>
+      </c>
       <c r="J23" s="2">
         <v>13203</v>
       </c>
@@ -2809,10 +3014,10 @@
     </row>
     <row r="24" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -2826,6 +3031,15 @@
       <c r="F24">
         <v>0.38900000000000001</v>
       </c>
+      <c r="G24" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H24" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="I24" s="8">
+        <v>11.8</v>
+      </c>
       <c r="J24" s="2">
         <v>11470</v>
       </c>
@@ -2877,10 +3091,10 @@
     </row>
     <row r="25" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -2894,6 +3108,15 @@
       <c r="F25">
         <v>0.41</v>
       </c>
+      <c r="G25" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H25" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I25" s="8">
+        <v>11.5</v>
+      </c>
       <c r="J25" s="2">
         <v>11295</v>
       </c>
@@ -2945,10 +3168,10 @@
     </row>
     <row r="26" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -2962,6 +3185,15 @@
       <c r="F26">
         <v>0.41499999999999998</v>
       </c>
+      <c r="G26" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I26" s="8">
+        <v>11.4</v>
+      </c>
       <c r="J26" s="2">
         <v>11164</v>
       </c>
@@ -3013,10 +3245,10 @@
     </row>
     <row r="27" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3030,6 +3262,15 @@
       <c r="F27">
         <v>0.40899999999999997</v>
       </c>
+      <c r="G27" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="H27" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I27" s="8">
+        <v>8</v>
+      </c>
       <c r="J27" s="2">
         <v>11615</v>
       </c>
@@ -3081,10 +3322,10 @@
     </row>
     <row r="28" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3098,6 +3339,15 @@
       <c r="F28">
         <v>0.42499999999999999</v>
       </c>
+      <c r="G28" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="H28" s="8">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8">
+        <v>11.6</v>
+      </c>
       <c r="J28" s="2">
         <v>12308</v>
       </c>
@@ -3149,10 +3399,10 @@
     </row>
     <row r="29" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3166,6 +3416,15 @@
       <c r="F29">
         <v>0.41499999999999998</v>
       </c>
+      <c r="G29" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H29" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I29" s="8">
+        <v>10.7</v>
+      </c>
       <c r="J29" s="2">
         <v>10798</v>
       </c>
@@ -3217,10 +3476,10 @@
     </row>
     <row r="30" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3234,6 +3493,15 @@
       <c r="F30">
         <v>0.42299999999999999</v>
       </c>
+      <c r="G30" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="I30" s="8">
+        <v>6.7</v>
+      </c>
       <c r="J30" s="2">
         <v>20426</v>
       </c>
@@ -3285,10 +3553,10 @@
     </row>
     <row r="31" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3302,6 +3570,15 @@
       <c r="F31">
         <v>0.39600000000000002</v>
       </c>
+      <c r="G31" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I31" s="8">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="J31" s="2">
         <v>15059</v>
       </c>
@@ -3353,10 +3630,10 @@
     </row>
     <row r="32" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -3370,6 +3647,15 @@
       <c r="F32">
         <v>0.39400000000000002</v>
       </c>
+      <c r="G32" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I32" s="8">
+        <v>9.9</v>
+      </c>
       <c r="J32" s="2">
         <v>11159</v>
       </c>
@@ -3421,10 +3707,10 @@
     </row>
     <row r="33" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3438,6 +3724,15 @@
       <c r="F33">
         <v>0.37</v>
       </c>
+      <c r="G33" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="H33" s="8">
+        <v>2</v>
+      </c>
+      <c r="I33" s="8">
+        <v>7.9</v>
+      </c>
       <c r="J33" s="2">
         <v>15526</v>
       </c>
@@ -3489,10 +3784,10 @@
     </row>
     <row r="34" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -3506,6 +3801,15 @@
       <c r="F34">
         <v>0.40100000000000002</v>
       </c>
+      <c r="G34" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H34" s="8">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8">
+        <v>13.9</v>
+      </c>
       <c r="J34" s="2">
         <v>11914</v>
       </c>
@@ -3557,10 +3861,10 @@
     </row>
     <row r="35" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -3574,6 +3878,15 @@
       <c r="F35">
         <v>0.42299999999999999</v>
       </c>
+      <c r="G35" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="I35" s="8">
+        <v>12.6</v>
+      </c>
       <c r="J35" s="2">
         <v>14346</v>
       </c>
@@ -3625,10 +3938,10 @@
     </row>
     <row r="36" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -3642,6 +3955,15 @@
       <c r="F36">
         <v>0.39700000000000002</v>
       </c>
+      <c r="G36" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H36" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I36" s="8">
+        <v>11.9</v>
+      </c>
       <c r="J36" s="2">
         <v>12509</v>
       </c>
@@ -3693,10 +4015,10 @@
     </row>
     <row r="37" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -3710,6 +4032,15 @@
       <c r="F37">
         <v>0.39300000000000002</v>
       </c>
+      <c r="G37" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I37" s="8">
+        <v>10.5</v>
+      </c>
       <c r="J37" s="2">
         <v>11562</v>
       </c>
@@ -3761,10 +4092,10 @@
     </row>
     <row r="38" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -3778,6 +4109,15 @@
       <c r="F38">
         <v>0.35799999999999998</v>
       </c>
+      <c r="G38" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H38" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I38" s="8">
+        <v>10.4</v>
+      </c>
       <c r="J38" s="2">
         <v>11256</v>
       </c>
@@ -3829,10 +4169,10 @@
     </row>
     <row r="39" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -3846,6 +4186,15 @@
       <c r="F39">
         <v>0.379</v>
       </c>
+      <c r="G39" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H39" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I39" s="8">
+        <v>10.7</v>
+      </c>
       <c r="J39" s="2">
         <v>10331</v>
       </c>
@@ -3897,10 +4246,10 @@
     </row>
     <row r="40" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -3914,6 +4263,15 @@
       <c r="F40">
         <v>0.42299999999999999</v>
       </c>
+      <c r="G40" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="H40" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I40" s="8">
+        <v>11.3</v>
+      </c>
       <c r="J40" s="2">
         <v>11631</v>
       </c>
@@ -3965,10 +4323,10 @@
     </row>
     <row r="41" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -3982,6 +4340,15 @@
       <c r="F41">
         <v>0.36399999999999999</v>
       </c>
+      <c r="G41" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="H41" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="I41" s="8">
+        <v>12.9</v>
+      </c>
       <c r="J41" s="2">
         <v>10333</v>
       </c>
@@ -4033,10 +4400,10 @@
     </row>
     <row r="42" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4050,6 +4417,15 @@
       <c r="F42">
         <v>0.39900000000000002</v>
       </c>
+      <c r="G42" s="8">
+        <v>3</v>
+      </c>
+      <c r="H42" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I42" s="8">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="J42" s="2">
         <v>14992</v>
       </c>
@@ -4101,10 +4477,10 @@
     </row>
     <row r="43" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4118,6 +4494,15 @@
       <c r="F43">
         <v>0.44400000000000001</v>
       </c>
+      <c r="G43" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="H43" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I43" s="8">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="J43" s="2">
         <v>11077</v>
       </c>
@@ -4169,10 +4554,10 @@
     </row>
     <row r="44" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4186,6 +4571,15 @@
       <c r="F44">
         <v>0.39700000000000002</v>
       </c>
+      <c r="G44" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="H44" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I44" s="8">
+        <v>11</v>
+      </c>
       <c r="J44" s="2">
         <v>13323</v>
       </c>
@@ -4237,10 +4631,10 @@
     </row>
     <row r="45" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4254,6 +4648,15 @@
       <c r="F45">
         <v>0.38500000000000001</v>
       </c>
+      <c r="G45" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="H45" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="I45" s="8">
+        <v>12</v>
+      </c>
       <c r="J45" s="2">
         <v>10011</v>
       </c>
@@ -4305,10 +4708,10 @@
     </row>
     <row r="46" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -4322,6 +4725,15 @@
       <c r="F46">
         <v>0.43</v>
       </c>
+      <c r="G46" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="H46" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I46" s="8">
+        <v>12</v>
+      </c>
       <c r="J46" s="2">
         <v>12663</v>
       </c>
@@ -4373,10 +4785,10 @@
     </row>
     <row r="47" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4390,6 +4802,15 @@
       <c r="F47">
         <v>0.41799999999999998</v>
       </c>
+      <c r="G47" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="H47" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="I47" s="8">
+        <v>10.8</v>
+      </c>
       <c r="J47" s="2">
         <v>12973</v>
       </c>
@@ -4441,10 +4862,10 @@
     </row>
     <row r="48" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4458,6 +4879,15 @@
       <c r="F48">
         <v>0.42899999999999999</v>
       </c>
+      <c r="G48" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="H48" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I48" s="8">
+        <v>12.7</v>
+      </c>
       <c r="J48" s="2">
         <v>11492</v>
       </c>
@@ -4509,10 +4939,10 @@
     </row>
     <row r="49" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4526,6 +4956,15 @@
       <c r="F49">
         <v>0.40799999999999997</v>
       </c>
+      <c r="G49" s="8">
+        <v>6</v>
+      </c>
+      <c r="H49" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="I49" s="8">
+        <v>12.1</v>
+      </c>
       <c r="J49" s="2">
         <v>12811</v>
       </c>
@@ -4577,10 +5016,10 @@
     </row>
     <row r="50" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4594,6 +5033,15 @@
       <c r="F50">
         <v>0.46</v>
       </c>
+      <c r="G50" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="H50" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="I50" s="8">
+        <v>10.5</v>
+      </c>
       <c r="J50" s="2">
         <v>14614</v>
       </c>
@@ -4645,10 +5093,10 @@
     </row>
     <row r="51" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4662,6 +5110,15 @@
       <c r="F51">
         <v>0.40600000000000003</v>
       </c>
+      <c r="G51" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="H51" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="I51" s="8">
+        <v>11.3</v>
+      </c>
       <c r="J51" s="2">
         <v>12428</v>
       </c>
@@ -4713,10 +5170,10 @@
     </row>
     <row r="52" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -4730,6 +5187,15 @@
       <c r="F52">
         <v>0.39400000000000002</v>
       </c>
+      <c r="G52" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H52" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I52" s="8">
+        <v>7.5</v>
+      </c>
       <c r="J52" s="2">
         <v>10177</v>
       </c>
@@ -4781,10 +5247,10 @@
     </row>
     <row r="53" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4798,6 +5264,15 @@
       <c r="F53">
         <v>0.41</v>
       </c>
+      <c r="G53" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="H53" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I53" s="8">
+        <v>12.5</v>
+      </c>
       <c r="J53" s="2">
         <v>10862</v>
       </c>
@@ -4849,10 +5324,10 @@
     </row>
     <row r="54" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -4866,6 +5341,15 @@
       <c r="F54">
         <v>0.503</v>
       </c>
+      <c r="G54" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="H54" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="I54" s="8">
+        <v>7.9</v>
+      </c>
       <c r="J54" s="2">
         <v>12017</v>
       </c>
@@ -4917,10 +5401,10 @@
     </row>
     <row r="55" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -4934,6 +5418,15 @@
       <c r="F55">
         <v>0.39700000000000002</v>
       </c>
+      <c r="G55" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="H55" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I55" s="8">
+        <v>10.199999999999999</v>
+      </c>
       <c r="J55" s="2">
         <v>12419</v>
       </c>
@@ -4985,10 +5478,10 @@
     </row>
     <row r="56" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -5002,6 +5495,15 @@
       <c r="F56">
         <v>0.38800000000000001</v>
       </c>
+      <c r="G56" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="H56" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I56" s="8">
+        <v>10.4</v>
+      </c>
       <c r="J56" s="2">
         <v>13068</v>
       </c>
@@ -5053,10 +5555,10 @@
     </row>
     <row r="57" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -5070,6 +5572,15 @@
       <c r="F57">
         <v>0.40300000000000002</v>
       </c>
+      <c r="G57" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H57" s="8">
+        <v>3</v>
+      </c>
+      <c r="I57" s="8">
+        <v>11.3</v>
+      </c>
       <c r="J57" s="2">
         <v>11925</v>
       </c>
@@ -5121,10 +5632,10 @@
     </row>
     <row r="58" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -5138,6 +5649,15 @@
       <c r="F58">
         <v>0.35799999999999998</v>
       </c>
+      <c r="G58" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="H58" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="I58" s="8">
+        <v>13.2</v>
+      </c>
       <c r="J58" s="2">
         <v>11772</v>
       </c>
@@ -5189,10 +5709,10 @@
     </row>
     <row r="59" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -5206,6 +5726,15 @@
       <c r="F59">
         <v>0.39800000000000002</v>
       </c>
+      <c r="G59" s="8">
+        <v>8</v>
+      </c>
+      <c r="H59" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I59" s="8">
+        <v>11.1</v>
+      </c>
       <c r="J59" s="2">
         <v>10786</v>
       </c>
@@ -5257,10 +5786,10 @@
     </row>
     <row r="60" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -5274,6 +5803,15 @@
       <c r="F60">
         <v>0.438</v>
       </c>
+      <c r="G60" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="H60" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I60" s="8">
+        <v>12.8</v>
+      </c>
       <c r="J60" s="2">
         <v>9222</v>
       </c>
@@ -5325,10 +5863,10 @@
     </row>
     <row r="61" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -5342,6 +5880,15 @@
       <c r="F61">
         <v>0.38100000000000001</v>
       </c>
+      <c r="G61" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="H61" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I61" s="8">
+        <v>11.5</v>
+      </c>
       <c r="J61" s="2">
         <v>10572</v>
       </c>
@@ -5393,10 +5940,10 @@
     </row>
     <row r="62" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -5410,6 +5957,15 @@
       <c r="F62">
         <v>0.40100000000000002</v>
       </c>
+      <c r="G62" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="H62" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I62" s="8">
+        <v>10.9</v>
+      </c>
       <c r="J62" s="2">
         <v>11058</v>
       </c>
@@ -5461,10 +6017,10 @@
     </row>
     <row r="63" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -5478,6 +6034,15 @@
       <c r="F63">
         <v>0.40300000000000002</v>
       </c>
+      <c r="G63" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="H63" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I63" s="8">
+        <v>10.6</v>
+      </c>
       <c r="J63" s="2">
         <v>10567</v>
       </c>
@@ -5529,10 +6094,10 @@
     </row>
     <row r="64" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -5546,6 +6111,15 @@
       <c r="F64">
         <v>0.39500000000000002</v>
       </c>
+      <c r="G64" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I64" s="8">
+        <v>9.5</v>
+      </c>
       <c r="J64" s="2">
         <v>10934</v>
       </c>
@@ -5597,10 +6171,10 @@
     </row>
     <row r="65" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -5614,6 +6188,15 @@
       <c r="F65">
         <v>0.40899999999999997</v>
       </c>
+      <c r="G65" s="8">
+        <v>4</v>
+      </c>
+      <c r="H65" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="I65" s="8">
+        <v>9.5</v>
+      </c>
       <c r="J65" s="2">
         <v>15059</v>
       </c>
@@ -5665,10 +6248,10 @@
     </row>
     <row r="66" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -5682,6 +6265,15 @@
       <c r="F66">
         <v>0.39800000000000002</v>
       </c>
+      <c r="G66" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="H66" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I66" s="8">
+        <v>7.8</v>
+      </c>
       <c r="J66" s="2">
         <v>12879</v>
       </c>
@@ -5733,10 +6325,10 @@
     </row>
     <row r="67" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -5750,6 +6342,15 @@
       <c r="F67">
         <v>0.39600000000000002</v>
       </c>
+      <c r="G67" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="H67" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I67" s="8">
+        <v>10</v>
+      </c>
       <c r="J67" s="2">
         <v>11107</v>
       </c>
@@ -5801,10 +6402,10 @@
     </row>
     <row r="68" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -5818,6 +6419,15 @@
       <c r="F68">
         <v>0.38100000000000001</v>
       </c>
+      <c r="G68" s="8">
+        <v>5</v>
+      </c>
+      <c r="H68" s="8">
+        <v>3</v>
+      </c>
+      <c r="I68" s="8">
+        <v>11.6</v>
+      </c>
       <c r="J68" s="2">
         <v>11154</v>
       </c>
@@ -5869,10 +6479,10 @@
     </row>
     <row r="69" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -5886,6 +6496,15 @@
       <c r="F69">
         <v>0.38300000000000001</v>
       </c>
+      <c r="G69" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="H69" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="I69" s="8">
+        <v>11.8</v>
+      </c>
       <c r="J69" s="2">
         <v>11241</v>
       </c>
@@ -5937,10 +6556,10 @@
     </row>
     <row r="70" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -5954,6 +6573,15 @@
       <c r="F70">
         <v>0.39700000000000002</v>
       </c>
+      <c r="G70" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="H70" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="I70" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J70" s="2">
         <v>11563</v>
       </c>
@@ -6005,10 +6633,10 @@
     </row>
     <row r="71" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -6022,6 +6650,15 @@
       <c r="F71">
         <v>0.38200000000000001</v>
       </c>
+      <c r="G71" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="H71" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I71" s="8">
+        <v>11.1</v>
+      </c>
       <c r="J71" s="2">
         <v>10869</v>
       </c>
@@ -6073,10 +6710,10 @@
     </row>
     <row r="72" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -6090,6 +6727,15 @@
       <c r="F72">
         <v>0.44500000000000001</v>
       </c>
+      <c r="G72" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="H72" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="I72" s="8">
+        <v>11.6</v>
+      </c>
       <c r="J72" s="2">
         <v>13277</v>
       </c>
@@ -6141,10 +6787,10 @@
     </row>
     <row r="73" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -6158,6 +6804,15 @@
       <c r="F73">
         <v>0.40200000000000002</v>
       </c>
+      <c r="G73" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H73" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I73" s="8">
+        <v>13.2</v>
+      </c>
       <c r="J73" s="2">
         <v>9766</v>
       </c>
@@ -6209,10 +6864,10 @@
     </row>
     <row r="74" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -6226,6 +6881,15 @@
       <c r="F74">
         <v>0.436</v>
       </c>
+      <c r="G74" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="H74" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I74" s="8">
+        <v>11</v>
+      </c>
       <c r="J74" s="2">
         <v>12935</v>
       </c>
@@ -6277,10 +6941,10 @@
     </row>
     <row r="75" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -6294,6 +6958,15 @@
       <c r="F75">
         <v>0.38900000000000001</v>
       </c>
+      <c r="G75" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="H75" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I75" s="8">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="J75" s="2">
         <v>11462</v>
       </c>
@@ -6345,10 +7018,10 @@
     </row>
     <row r="76" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -6362,6 +7035,15 @@
       <c r="F76">
         <v>0.39600000000000002</v>
       </c>
+      <c r="G76" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="H76" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I76" s="8">
+        <v>13.3</v>
+      </c>
       <c r="J76" s="2">
         <v>9980</v>
       </c>
@@ -6413,10 +7095,10 @@
     </row>
     <row r="77" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -6430,6 +7112,15 @@
       <c r="F77">
         <v>0.38300000000000001</v>
       </c>
+      <c r="G77" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="H77" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I77" s="8">
+        <v>11.1</v>
+      </c>
       <c r="J77" s="2">
         <v>12399</v>
       </c>
@@ -6481,10 +7172,10 @@
     </row>
     <row r="78" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -6498,6 +7189,15 @@
       <c r="F78">
         <v>0.40300000000000002</v>
       </c>
+      <c r="G78" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="H78" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="I78" s="8">
+        <v>10.1</v>
+      </c>
       <c r="J78" s="2">
         <v>10668</v>
       </c>
@@ -6549,10 +7249,10 @@
     </row>
     <row r="79" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -6566,6 +7266,15 @@
       <c r="F79">
         <v>0.38700000000000001</v>
       </c>
+      <c r="G79" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="H79" s="8">
+        <v>5</v>
+      </c>
+      <c r="I79" s="8">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="J79" s="2">
         <v>10201</v>
       </c>
@@ -6617,10 +7326,10 @@
     </row>
     <row r="80" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -6634,6 +7343,15 @@
       <c r="F80">
         <v>0.46200000000000002</v>
       </c>
+      <c r="G80" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="H80" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I80" s="8">
+        <v>8.9</v>
+      </c>
       <c r="J80" s="2">
         <v>12570</v>
       </c>
@@ -6685,10 +7403,10 @@
     </row>
     <row r="81" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -6702,6 +7420,15 @@
       <c r="F81">
         <v>0.36199999999999999</v>
       </c>
+      <c r="G81" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="H81" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I81" s="8">
+        <v>10.3</v>
+      </c>
       <c r="J81" s="2">
         <v>13669</v>
       </c>
@@ -6753,10 +7480,10 @@
     </row>
     <row r="82" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -6770,6 +7497,15 @@
       <c r="F82">
         <v>0.35499999999999998</v>
       </c>
+      <c r="G82" s="8">
+        <v>8</v>
+      </c>
+      <c r="H82" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="I82" s="8">
+        <v>10.3</v>
+      </c>
       <c r="J82" s="2">
         <v>10700</v>
       </c>
@@ -6821,10 +7557,10 @@
     </row>
     <row r="83" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -6838,6 +7574,15 @@
       <c r="F83">
         <v>0.45500000000000002</v>
       </c>
+      <c r="G83" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H83" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="I83" s="8">
+        <v>8.9</v>
+      </c>
       <c r="J83" s="2">
         <v>13434</v>
       </c>
@@ -6889,10 +7634,10 @@
     </row>
     <row r="84" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -6906,6 +7651,15 @@
       <c r="F84">
         <v>0.44400000000000001</v>
       </c>
+      <c r="G84" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H84" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I84" s="8">
+        <v>12.9</v>
+      </c>
       <c r="J84" s="2">
         <v>11217</v>
       </c>
@@ -6957,10 +7711,10 @@
     </row>
     <row r="85" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -6974,6 +7728,15 @@
       <c r="F85">
         <v>0.45200000000000001</v>
       </c>
+      <c r="G85" s="8">
+        <v>5</v>
+      </c>
+      <c r="H85" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I85" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J85" s="2">
         <v>11973</v>
       </c>
@@ -7025,10 +7788,10 @@
     </row>
     <row r="86" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -7042,6 +7805,15 @@
       <c r="F86">
         <v>0.38600000000000001</v>
       </c>
+      <c r="G86" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H86" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I86" s="8">
+        <v>11.4</v>
+      </c>
       <c r="J86" s="2">
         <v>11511</v>
       </c>
@@ -7093,10 +7865,10 @@
     </row>
     <row r="87" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -7110,6 +7882,15 @@
       <c r="F87">
         <v>0.40699999999999997</v>
       </c>
+      <c r="G87" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="H87" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="I87" s="8">
+        <v>10.5</v>
+      </c>
       <c r="J87" s="2">
         <v>10911</v>
       </c>
@@ -7161,10 +7942,10 @@
     </row>
     <row r="88" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -7178,6 +7959,15 @@
       <c r="F88">
         <v>0.435</v>
       </c>
+      <c r="G88" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H88" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I88" s="8">
+        <v>8</v>
+      </c>
       <c r="J88" s="2">
         <v>14037</v>
       </c>
@@ -7229,10 +8019,10 @@
     </row>
     <row r="89" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -7246,6 +8036,15 @@
       <c r="F89">
         <v>0.40899999999999997</v>
       </c>
+      <c r="G89" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="H89" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="I89" s="8">
+        <v>12.2</v>
+      </c>
       <c r="J89" s="2">
         <v>10187</v>
       </c>
@@ -7297,10 +8096,10 @@
     </row>
     <row r="90" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -7314,6 +8113,15 @@
       <c r="F90">
         <v>0.432</v>
       </c>
+      <c r="G90" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H90" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I90" s="8">
+        <v>12.8</v>
+      </c>
       <c r="J90" s="2">
         <v>11535</v>
       </c>
@@ -7365,10 +8173,10 @@
     </row>
     <row r="91" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -7382,6 +8190,15 @@
       <c r="F91">
         <v>0.39300000000000002</v>
       </c>
+      <c r="G91" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H91" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I91" s="8">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J91" s="2">
         <v>12765</v>
       </c>
@@ -7433,10 +8250,10 @@
     </row>
     <row r="92" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -7450,6 +8267,15 @@
       <c r="F92">
         <v>0.38100000000000001</v>
       </c>
+      <c r="G92" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H92" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I92" s="8">
+        <v>10.5</v>
+      </c>
       <c r="J92" s="2">
         <v>12111</v>
       </c>
@@ -7501,10 +8327,10 @@
     </row>
     <row r="93" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -7518,6 +8344,15 @@
       <c r="F93">
         <v>0.38700000000000001</v>
       </c>
+      <c r="G93" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H93" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="I93" s="8">
+        <v>11.5</v>
+      </c>
       <c r="J93" s="2">
         <v>12605</v>
       </c>
@@ -7569,10 +8404,10 @@
     </row>
     <row r="94" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -7586,6 +8421,15 @@
       <c r="F94">
         <v>0.46200000000000002</v>
       </c>
+      <c r="G94" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H94" s="8">
+        <v>5</v>
+      </c>
+      <c r="I94" s="8">
+        <v>12.4</v>
+      </c>
       <c r="J94" s="4">
         <v>8596</v>
       </c>
@@ -7637,10 +8481,10 @@
     </row>
     <row r="95" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -7654,6 +8498,15 @@
       <c r="F95">
         <v>0.42</v>
       </c>
+      <c r="G95" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="H95" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I95" s="8">
+        <v>11.7</v>
+      </c>
       <c r="J95" s="4">
         <v>8361</v>
       </c>
@@ -7705,10 +8558,10 @@
     </row>
     <row r="96" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -7722,6 +8575,15 @@
       <c r="F96">
         <v>0.376</v>
       </c>
+      <c r="G96" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="H96" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I96" s="8">
+        <v>9.6</v>
+      </c>
       <c r="J96" s="4">
         <v>12320</v>
       </c>
@@ -7773,10 +8635,10 @@
     </row>
     <row r="97" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -7790,6 +8652,15 @@
       <c r="F97">
         <v>0.44800000000000001</v>
       </c>
+      <c r="G97" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H97" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="I97" s="8">
+        <v>10.3</v>
+      </c>
       <c r="J97" s="4">
         <v>10262</v>
       </c>
@@ -7841,10 +8712,10 @@
     </row>
     <row r="98" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -7858,6 +8729,15 @@
       <c r="F98">
         <v>0.45500000000000002</v>
       </c>
+      <c r="G98" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="H98" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I98" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J98" s="4">
         <v>9876</v>
       </c>
@@ -7909,10 +8789,10 @@
     </row>
     <row r="99" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -7926,6 +8806,15 @@
       <c r="F99">
         <v>0.46100000000000002</v>
       </c>
+      <c r="G99" s="8">
+        <v>11.7</v>
+      </c>
+      <c r="H99" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="I99" s="8">
+        <v>14.6</v>
+      </c>
       <c r="J99" s="4">
         <v>8034</v>
       </c>
@@ -7977,10 +8866,10 @@
     </row>
     <row r="100" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -7994,6 +8883,15 @@
       <c r="F100">
         <v>0.49</v>
       </c>
+      <c r="G100" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="H100" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="I100" s="8">
+        <v>12.1</v>
+      </c>
       <c r="J100" s="4">
         <v>7037</v>
       </c>
@@ -8045,10 +8943,10 @@
     </row>
     <row r="101" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -8062,6 +8960,15 @@
       <c r="F101">
         <v>0.39400000000000002</v>
       </c>
+      <c r="G101" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="H101" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="I101" s="8">
+        <v>8.9</v>
+      </c>
       <c r="J101" s="4">
         <v>13576</v>
       </c>
@@ -8113,10 +9020,10 @@
     </row>
     <row r="102" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102">
         <v>101</v>
@@ -8130,6 +9037,15 @@
       <c r="F102">
         <v>0.433</v>
       </c>
+      <c r="G102" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="H102" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="I102" s="8">
+        <v>9.1</v>
+      </c>
       <c r="J102" s="4">
         <v>10858</v>
       </c>
@@ -8181,10 +9097,10 @@
     </row>
     <row r="103" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C103">
         <v>102</v>
@@ -8198,6 +9114,15 @@
       <c r="F103">
         <v>0.47199999999999998</v>
       </c>
+      <c r="G103" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="H103" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="I103" s="8">
+        <v>10.199999999999999</v>
+      </c>
       <c r="J103" s="4">
         <v>12012</v>
       </c>
@@ -8249,10 +9174,10 @@
     </row>
     <row r="104" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C104">
         <v>103</v>
@@ -8266,6 +9191,15 @@
       <c r="F104">
         <v>0.47899999999999998</v>
       </c>
+      <c r="G104" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="H104" s="8">
+        <v>4</v>
+      </c>
+      <c r="I104" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J104" s="4">
         <v>11029</v>
       </c>
@@ -8317,10 +9251,10 @@
     </row>
     <row r="105" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105">
         <v>104</v>
@@ -8334,6 +9268,15 @@
       <c r="F105">
         <v>0.42399999999999999</v>
       </c>
+      <c r="G105" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="H105" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I105" s="8">
+        <v>11.4</v>
+      </c>
       <c r="J105" s="4">
         <v>9297</v>
       </c>
@@ -8385,10 +9328,10 @@
     </row>
     <row r="106" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C106">
         <v>105</v>
@@ -8402,6 +9345,15 @@
       <c r="F106">
         <v>0.54800000000000004</v>
       </c>
+      <c r="G106" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="H106" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I106" s="8">
+        <v>13.5</v>
+      </c>
       <c r="J106" s="4">
         <v>6905</v>
       </c>
@@ -8453,10 +9405,10 @@
     </row>
     <row r="107" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C107">
         <v>106</v>
@@ -8470,6 +9422,15 @@
       <c r="F107">
         <v>0.41899999999999998</v>
       </c>
+      <c r="G107" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="H107" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I107" s="8">
+        <v>12.9</v>
+      </c>
       <c r="J107" s="4">
         <v>9157</v>
       </c>
@@ -8521,10 +9482,10 @@
     </row>
     <row r="108" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C108">
         <v>107</v>
@@ -8538,6 +9499,15 @@
       <c r="F108">
         <v>0.378</v>
       </c>
+      <c r="G108" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H108" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="I108" s="8">
+        <v>10.6</v>
+      </c>
       <c r="J108" s="4">
         <v>10907</v>
       </c>
@@ -8589,10 +9559,10 @@
     </row>
     <row r="109" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C109">
         <v>108</v>
@@ -8606,6 +9576,15 @@
       <c r="F109">
         <v>0.437</v>
       </c>
+      <c r="G109" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="H109" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I109" s="8">
+        <v>12</v>
+      </c>
       <c r="J109" s="4">
         <v>8108</v>
       </c>
@@ -8657,10 +9636,10 @@
     </row>
     <row r="110" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110">
         <v>109</v>
@@ -8674,6 +9653,15 @@
       <c r="F110">
         <v>0.44700000000000001</v>
       </c>
+      <c r="G110" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="H110" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I110" s="8">
+        <v>10.5</v>
+      </c>
       <c r="J110" s="4">
         <v>9658</v>
       </c>
@@ -8725,10 +9713,10 @@
     </row>
     <row r="111" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111">
         <v>110</v>
@@ -8742,6 +9730,15 @@
       <c r="F111">
         <v>0.45500000000000002</v>
       </c>
+      <c r="G111" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="H111" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="I111" s="8">
+        <v>8.1</v>
+      </c>
       <c r="J111" s="4">
         <v>10434</v>
       </c>
@@ -8793,10 +9790,10 @@
     </row>
     <row r="112" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C112">
         <v>111</v>
@@ -8810,6 +9807,15 @@
       <c r="F112">
         <v>0.441</v>
       </c>
+      <c r="G112" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="H112" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="I112" s="8">
+        <v>9.1</v>
+      </c>
       <c r="J112" s="4">
         <v>12603</v>
       </c>
@@ -8861,10 +9867,10 @@
     </row>
     <row r="113" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C113">
         <v>112</v>
@@ -8878,6 +9884,15 @@
       <c r="F113">
         <v>0.40300000000000002</v>
       </c>
+      <c r="G113" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="H113" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="I113" s="8">
+        <v>9.1</v>
+      </c>
       <c r="J113" s="4">
         <v>9735</v>
       </c>
@@ -8929,10 +9944,10 @@
     </row>
     <row r="114" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C114">
         <v>113</v>
@@ -8946,6 +9961,15 @@
       <c r="F114">
         <v>0.45500000000000002</v>
       </c>
+      <c r="G114" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H114" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="I114" s="8">
+        <v>14.5</v>
+      </c>
       <c r="J114" s="4">
         <v>10202</v>
       </c>
@@ -8997,10 +10021,10 @@
     </row>
     <row r="115" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C115">
         <v>114</v>
@@ -9014,6 +10038,15 @@
       <c r="F115">
         <v>0.47199999999999998</v>
       </c>
+      <c r="G115" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="H115" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="I115" s="8">
+        <v>14.1</v>
+      </c>
       <c r="J115" s="4">
         <v>7996</v>
       </c>
@@ -9065,10 +10098,10 @@
     </row>
     <row r="116" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C116">
         <v>115</v>
@@ -9082,6 +10115,15 @@
       <c r="F116">
         <v>0.437</v>
       </c>
+      <c r="G116" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H116" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I116" s="8">
+        <v>11</v>
+      </c>
       <c r="J116" s="4">
         <v>7719</v>
       </c>
@@ -9133,10 +10175,10 @@
     </row>
     <row r="117" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C117">
         <v>116</v>
@@ -9150,6 +10192,15 @@
       <c r="F117">
         <v>0.42399999999999999</v>
       </c>
+      <c r="G117" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="H117" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I117" s="8">
+        <v>11.7</v>
+      </c>
       <c r="J117" s="4">
         <v>9708</v>
       </c>
@@ -9201,10 +10252,10 @@
     </row>
     <row r="118" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C118">
         <v>117</v>
@@ -9218,6 +10269,15 @@
       <c r="F118">
         <v>0.438</v>
       </c>
+      <c r="G118" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="H118" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I118" s="8">
+        <v>10.8</v>
+      </c>
       <c r="J118" s="4">
         <v>11655</v>
       </c>
@@ -9269,10 +10329,10 @@
     </row>
     <row r="119" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C119">
         <v>118</v>
@@ -9286,6 +10346,15 @@
       <c r="F119">
         <v>0.51200000000000001</v>
       </c>
+      <c r="G119" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="H119" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I119" s="8">
+        <v>14.5</v>
+      </c>
       <c r="J119" s="4">
         <v>6084</v>
       </c>
@@ -9337,10 +10406,10 @@
     </row>
     <row r="120" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C120">
         <v>119</v>
@@ -9354,6 +10423,15 @@
       <c r="F120">
         <v>0.48699999999999999</v>
       </c>
+      <c r="G120" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H120" s="8">
+        <v>5</v>
+      </c>
+      <c r="I120" s="8">
+        <v>11</v>
+      </c>
       <c r="J120" s="4">
         <v>6838</v>
       </c>
@@ -9405,10 +10483,10 @@
     </row>
     <row r="121" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121">
         <v>120</v>
@@ -9422,6 +10500,15 @@
       <c r="F121">
         <v>0.46300000000000002</v>
       </c>
+      <c r="G121" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H121" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="I121" s="8">
+        <v>9.9</v>
+      </c>
       <c r="J121" s="4">
         <v>9807</v>
       </c>
@@ -9473,10 +10560,10 @@
     </row>
     <row r="122" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122">
         <v>121</v>
@@ -9490,6 +10577,15 @@
       <c r="F122">
         <v>0.41899999999999998</v>
       </c>
+      <c r="G122" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="H122" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I122" s="8">
+        <v>11.8</v>
+      </c>
       <c r="J122" s="4">
         <v>6858</v>
       </c>
@@ -9541,10 +10637,10 @@
     </row>
     <row r="123" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C123">
         <v>122</v>
@@ -9558,6 +10654,15 @@
       <c r="F123">
         <v>0.438</v>
       </c>
+      <c r="G123" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="H123" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I123" s="8">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="J123" s="4">
         <v>11456</v>
       </c>
@@ -9609,10 +10714,10 @@
     </row>
     <row r="124" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C124">
         <v>123</v>
@@ -9626,6 +10731,15 @@
       <c r="F124">
         <v>0.44500000000000001</v>
       </c>
+      <c r="G124" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H124" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I124" s="8">
+        <v>13.3</v>
+      </c>
       <c r="J124" s="4">
         <v>7181</v>
       </c>
@@ -9677,10 +10791,10 @@
     </row>
     <row r="125" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125">
         <v>124</v>
@@ -9694,6 +10808,15 @@
       <c r="F125">
         <v>0.496</v>
       </c>
+      <c r="G125" s="8">
+        <v>13.7</v>
+      </c>
+      <c r="H125" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="I125" s="8">
+        <v>15.8</v>
+      </c>
       <c r="J125" s="4">
         <v>6823</v>
       </c>
@@ -9745,10 +10868,10 @@
     </row>
     <row r="126" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C126">
         <v>125</v>
@@ -9762,6 +10885,15 @@
       <c r="F126">
         <v>0.48499999999999999</v>
       </c>
+      <c r="G126" s="8">
+        <v>12.3</v>
+      </c>
+      <c r="H126" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I126" s="8">
+        <v>13.5</v>
+      </c>
       <c r="J126" s="4">
         <v>7474</v>
       </c>
@@ -9813,10 +10945,10 @@
     </row>
     <row r="127" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C127">
         <v>126</v>
@@ -9830,6 +10962,15 @@
       <c r="F127">
         <v>0.48099999999999998</v>
       </c>
+      <c r="G127" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="H127" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="I127" s="8">
+        <v>7.4</v>
+      </c>
       <c r="J127" s="4">
         <v>14962</v>
       </c>
@@ -9881,10 +11022,10 @@
     </row>
     <row r="128" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C128">
         <v>127</v>
@@ -9898,6 +11039,15 @@
       <c r="F128">
         <v>0.46200000000000002</v>
       </c>
+      <c r="G128" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="H128" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="I128" s="8">
+        <v>11.5</v>
+      </c>
       <c r="J128" s="4">
         <v>8950</v>
       </c>
@@ -9949,10 +11099,10 @@
     </row>
     <row r="129" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C129">
         <v>128</v>
@@ -9966,6 +11116,15 @@
       <c r="F129">
         <v>0.46899999999999997</v>
       </c>
+      <c r="G129" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H129" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="I129" s="8">
+        <v>13.5</v>
+      </c>
       <c r="J129" s="4">
         <v>7922</v>
       </c>
@@ -10017,10 +11176,10 @@
     </row>
     <row r="130" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C130">
         <v>129</v>
@@ -10034,6 +11193,15 @@
       <c r="F130">
         <v>0.442</v>
       </c>
+      <c r="G130" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="H130" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I130" s="8">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="J130" s="4">
         <v>13383</v>
       </c>
@@ -10085,10 +11253,10 @@
     </row>
     <row r="131" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C131">
         <v>130</v>
@@ -10102,6 +11270,15 @@
       <c r="F131">
         <v>0.442</v>
       </c>
+      <c r="G131" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H131" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="I131" s="8">
+        <v>11.5</v>
+      </c>
       <c r="J131" s="4">
         <v>9820</v>
       </c>
@@ -10153,10 +11330,10 @@
     </row>
     <row r="132" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C132">
         <v>131</v>
@@ -10170,6 +11347,15 @@
       <c r="F132">
         <v>0.38900000000000001</v>
       </c>
+      <c r="G132" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H132" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="I132" s="8">
+        <v>12.3</v>
+      </c>
       <c r="J132" s="4">
         <v>9717</v>
       </c>
@@ -10221,10 +11407,10 @@
     </row>
     <row r="133" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C133">
         <v>132</v>
@@ -10238,6 +11424,15 @@
       <c r="F133">
         <v>0.438</v>
       </c>
+      <c r="G133" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="H133" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I133" s="8">
+        <v>11.1</v>
+      </c>
       <c r="J133" s="4">
         <v>10011</v>
       </c>
@@ -10289,10 +11484,10 @@
     </row>
     <row r="134" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C134">
         <v>133</v>
@@ -10306,6 +11501,15 @@
       <c r="F134">
         <v>0.42399999999999999</v>
       </c>
+      <c r="G134" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H134" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I134" s="8">
+        <v>11.8</v>
+      </c>
       <c r="J134" s="4">
         <v>10356</v>
       </c>
@@ -10357,10 +11561,10 @@
     </row>
     <row r="135" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C135">
         <v>134</v>
@@ -10374,6 +11578,15 @@
       <c r="F135">
         <v>0.46400000000000002</v>
       </c>
+      <c r="G135" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="H135" s="8">
+        <v>5</v>
+      </c>
+      <c r="I135" s="8">
+        <v>9.5</v>
+      </c>
       <c r="J135" s="4">
         <v>10784</v>
       </c>
@@ -10425,10 +11638,10 @@
     </row>
     <row r="136" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C136">
         <v>135</v>
@@ -10442,6 +11655,15 @@
       <c r="F136">
         <v>0.434</v>
       </c>
+      <c r="G136" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H136" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I136" s="8">
+        <v>14.2</v>
+      </c>
       <c r="J136" s="4">
         <v>8767</v>
       </c>
@@ -10493,10 +11715,10 @@
     </row>
     <row r="137" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C137">
         <v>136</v>
@@ -10510,6 +11732,15 @@
       <c r="F137">
         <v>0.5</v>
       </c>
+      <c r="G137" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="H137" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I137" s="8">
+        <v>11.8</v>
+      </c>
       <c r="J137" s="4">
         <v>9177</v>
       </c>
@@ -10561,10 +11792,10 @@
     </row>
     <row r="138" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C138">
         <v>137</v>
@@ -10578,6 +11809,15 @@
       <c r="F138">
         <v>0.442</v>
       </c>
+      <c r="G138" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H138" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="I138" s="8">
+        <v>11.5</v>
+      </c>
       <c r="J138" s="4">
         <v>11165</v>
       </c>
@@ -10629,10 +11869,10 @@
     </row>
     <row r="139" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C139">
         <v>138</v>
@@ -10646,6 +11886,15 @@
       <c r="F139">
         <v>0.373</v>
       </c>
+      <c r="G139" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H139" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I139" s="8">
+        <v>10.3</v>
+      </c>
       <c r="J139" s="4">
         <v>10891</v>
       </c>
@@ -10697,10 +11946,10 @@
     </row>
     <row r="140" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C140">
         <v>139</v>
@@ -10714,6 +11963,15 @@
       <c r="F140">
         <v>0.41</v>
       </c>
+      <c r="G140" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="H140" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="I140" s="8">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="J140" s="4">
         <v>10624</v>
       </c>
@@ -10765,10 +12023,10 @@
     </row>
     <row r="141" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141">
         <v>140</v>
@@ -10782,6 +12040,15 @@
       <c r="F141">
         <v>0.47599999999999998</v>
       </c>
+      <c r="G141" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H141" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I141" s="8">
+        <v>11.9</v>
+      </c>
       <c r="J141" s="4">
         <v>7502</v>
       </c>
@@ -10833,10 +12100,10 @@
     </row>
     <row r="142" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C142">
         <v>141</v>
@@ -10850,6 +12117,15 @@
       <c r="F142">
         <v>0.433</v>
       </c>
+      <c r="G142" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H142" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I142" s="8">
+        <v>11.1</v>
+      </c>
       <c r="J142" s="4">
         <v>10271</v>
       </c>
@@ -10901,10 +12177,10 @@
     </row>
     <row r="143" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C143">
         <v>142</v>
@@ -10918,6 +12194,15 @@
       <c r="F143">
         <v>0.47399999999999998</v>
       </c>
+      <c r="G143" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H143" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="I143" s="8">
+        <v>10.4</v>
+      </c>
       <c r="J143" s="4">
         <v>8142</v>
       </c>
@@ -10969,10 +12254,10 @@
     </row>
     <row r="144" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C144">
         <v>143</v>
@@ -10986,6 +12271,15 @@
       <c r="F144">
         <v>0.437</v>
       </c>
+      <c r="G144" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H144" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I144" s="8">
+        <v>10.3</v>
+      </c>
       <c r="J144" s="4">
         <v>12042</v>
       </c>
@@ -11037,10 +12331,10 @@
     </row>
     <row r="145" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C145">
         <v>144</v>
@@ -11054,6 +12348,15 @@
       <c r="F145">
         <v>0.41399999999999998</v>
       </c>
+      <c r="G145" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="H145" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="I145" s="8">
+        <v>9.9</v>
+      </c>
       <c r="J145" s="4">
         <v>10344</v>
       </c>
@@ -11105,10 +12408,10 @@
     </row>
     <row r="146" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C146">
         <v>145</v>
@@ -11122,6 +12425,15 @@
       <c r="F146">
         <v>0.45</v>
       </c>
+      <c r="G146" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="H146" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="I146" s="8">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="J146" s="4">
         <v>9777</v>
       </c>
@@ -11173,10 +12485,10 @@
     </row>
     <row r="147" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C147">
         <v>146</v>
@@ -11190,6 +12502,15 @@
       <c r="F147">
         <v>0.442</v>
       </c>
+      <c r="G147" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="H147" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="I147" s="8">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="J147" s="4">
         <v>10751</v>
       </c>
@@ -11241,10 +12562,10 @@
     </row>
     <row r="148" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C148">
         <v>147</v>
@@ -11258,6 +12579,15 @@
       <c r="F148">
         <v>0.49299999999999999</v>
       </c>
+      <c r="G148" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="H148" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I148" s="8">
+        <v>14.1</v>
+      </c>
       <c r="J148" s="4">
         <v>7097</v>
       </c>
@@ -11309,10 +12639,10 @@
     </row>
     <row r="149" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C149">
         <v>148</v>
@@ -11326,6 +12656,15 @@
       <c r="F149">
         <v>0.47</v>
       </c>
+      <c r="G149" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="H149" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I149" s="8">
+        <v>10</v>
+      </c>
       <c r="J149" s="4">
         <v>14067</v>
       </c>
@@ -11377,10 +12716,10 @@
     </row>
     <row r="150" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C150">
         <v>149</v>
@@ -11394,6 +12733,15 @@
       <c r="F150">
         <v>0.46899999999999997</v>
       </c>
+      <c r="G150" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="H150" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="I150" s="8">
+        <v>8.5</v>
+      </c>
       <c r="J150" s="4">
         <v>11733</v>
       </c>
@@ -11445,10 +12793,10 @@
     </row>
     <row r="151" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C151">
         <v>150</v>
@@ -11462,6 +12810,15 @@
       <c r="F151">
         <v>0.503</v>
       </c>
+      <c r="G151" s="8">
+        <v>8</v>
+      </c>
+      <c r="H151" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I151" s="8">
+        <v>12.6</v>
+      </c>
       <c r="J151" s="4">
         <v>8492</v>
       </c>
@@ -11513,10 +12870,10 @@
     </row>
     <row r="152" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C152">
         <v>151</v>
@@ -11530,6 +12887,15 @@
       <c r="F152">
         <v>0.433</v>
       </c>
+      <c r="G152" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="H152" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="I152" s="8">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J152" s="4">
         <v>13587</v>
       </c>
@@ -11581,10 +12947,10 @@
     </row>
     <row r="153" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C153">
         <v>152</v>
@@ -11598,6 +12964,15 @@
       <c r="F153">
         <v>0.46300000000000002</v>
       </c>
+      <c r="G153" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="H153" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="I153" s="8">
+        <v>13.5</v>
+      </c>
       <c r="J153" s="4">
         <v>6753</v>
       </c>
@@ -11649,10 +13024,10 @@
     </row>
     <row r="154" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C154">
         <v>153</v>
@@ -11666,6 +13041,15 @@
       <c r="F154">
         <v>0.50700000000000001</v>
       </c>
+      <c r="G154" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="H154" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I154" s="8">
+        <v>13.5</v>
+      </c>
       <c r="J154" s="4">
         <v>7776</v>
       </c>
@@ -11717,10 +13101,10 @@
     </row>
     <row r="155" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C155">
         <v>154</v>
@@ -11734,6 +13118,15 @@
       <c r="F155">
         <v>0.42699999999999999</v>
       </c>
+      <c r="G155" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H155" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I155" s="8">
+        <v>11.3</v>
+      </c>
       <c r="J155" s="4">
         <v>10129</v>
       </c>
@@ -11785,10 +13178,10 @@
     </row>
     <row r="156" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C156">
         <v>155</v>
@@ -11802,6 +13195,15 @@
       <c r="F156">
         <v>0.47099999999999997</v>
       </c>
+      <c r="G156" s="8">
+        <v>7</v>
+      </c>
+      <c r="H156" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I156" s="8">
+        <v>11.4</v>
+      </c>
       <c r="J156" s="4">
         <v>8879</v>
       </c>
@@ -11853,10 +13255,10 @@
     </row>
     <row r="157" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C157">
         <v>156</v>
@@ -11870,6 +13272,15 @@
       <c r="F157">
         <v>0.46400000000000002</v>
       </c>
+      <c r="G157" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="H157" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="I157" s="8">
+        <v>13.6</v>
+      </c>
       <c r="J157" s="4">
         <v>7809</v>
       </c>
@@ -11921,10 +13332,10 @@
     </row>
     <row r="158" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C158">
         <v>157</v>
@@ -11938,6 +13349,15 @@
       <c r="F158">
         <v>0.46400000000000002</v>
       </c>
+      <c r="G158" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="H158" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="I158" s="8">
+        <v>12.6</v>
+      </c>
       <c r="J158" s="4">
         <v>6869</v>
       </c>
@@ -11989,10 +13409,10 @@
     </row>
     <row r="159" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159">
         <v>158</v>
@@ -12006,6 +13426,15 @@
       <c r="F159">
         <v>0.45</v>
       </c>
+      <c r="G159" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="H159" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="I159" s="8">
+        <v>12.9</v>
+      </c>
       <c r="J159" s="4">
         <v>7190</v>
       </c>
@@ -12057,10 +13486,10 @@
     </row>
     <row r="160" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C160">
         <v>159</v>
@@ -12074,6 +13503,15 @@
       <c r="F160">
         <v>0.47699999999999998</v>
       </c>
+      <c r="G160" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="H160" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="I160" s="8">
+        <v>11.4</v>
+      </c>
       <c r="J160" s="4">
         <v>7340</v>
       </c>
@@ -12125,10 +13563,10 @@
     </row>
     <row r="161" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C161">
         <v>160</v>
@@ -12142,6 +13580,15 @@
       <c r="F161">
         <v>0.46899999999999997</v>
       </c>
+      <c r="G161" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="H161" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="I161" s="8">
+        <v>13.8</v>
+      </c>
       <c r="J161" s="4">
         <v>7477</v>
       </c>
@@ -12193,10 +13640,10 @@
     </row>
     <row r="162" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C162">
         <v>161</v>
@@ -12210,6 +13657,15 @@
       <c r="F162">
         <v>0.438</v>
       </c>
+      <c r="G162" s="8">
+        <v>7</v>
+      </c>
+      <c r="H162" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I162" s="8">
+        <v>12.8</v>
+      </c>
       <c r="J162" s="4">
         <v>8388</v>
       </c>
@@ -12261,10 +13717,10 @@
     </row>
     <row r="163" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C163">
         <v>162</v>
@@ -12278,6 +13734,15 @@
       <c r="F163">
         <v>0.41399999999999998</v>
       </c>
+      <c r="G163" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H163" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I163" s="8">
+        <v>12</v>
+      </c>
       <c r="J163" s="4">
         <v>10123</v>
       </c>
@@ -12329,10 +13794,10 @@
     </row>
     <row r="164" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C164">
         <v>163</v>
@@ -12346,6 +13811,15 @@
       <c r="F164">
         <v>0.45600000000000002</v>
       </c>
+      <c r="G164" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="H164" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I164" s="8">
+        <v>9.9</v>
+      </c>
       <c r="J164" s="4">
         <v>9907</v>
       </c>
@@ -12397,10 +13871,10 @@
     </row>
     <row r="165" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165">
         <v>164</v>
@@ -12414,6 +13888,15 @@
       <c r="F165">
         <v>0.41099999999999998</v>
       </c>
+      <c r="G165" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="H165" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I165" s="8">
+        <v>11.6</v>
+      </c>
       <c r="J165" s="4">
         <v>10081</v>
       </c>
@@ -12465,10 +13948,10 @@
     </row>
     <row r="166" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166">
         <v>165</v>
@@ -12482,6 +13965,15 @@
       <c r="F166">
         <v>0.47299999999999998</v>
       </c>
+      <c r="G166" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="H166" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I166" s="8">
+        <v>8.5</v>
+      </c>
       <c r="J166" s="4">
         <v>12460</v>
       </c>
@@ -12533,10 +14025,10 @@
     </row>
     <row r="167" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C167">
         <v>166</v>
@@ -12550,6 +14042,15 @@
       <c r="F167">
         <v>0.434</v>
       </c>
+      <c r="G167" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="H167" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="I167" s="8">
+        <v>20.5</v>
+      </c>
       <c r="J167" s="4">
         <v>5153</v>
       </c>
@@ -12601,10 +14102,10 @@
     </row>
     <row r="168" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C168">
         <v>167</v>
@@ -12618,6 +14119,15 @@
       <c r="F168">
         <v>0.442</v>
       </c>
+      <c r="G168" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="H168" s="8">
+        <v>5</v>
+      </c>
+      <c r="I168" s="8">
+        <v>12.6</v>
+      </c>
       <c r="J168" s="4">
         <v>9599</v>
       </c>
@@ -12669,10 +14179,10 @@
     </row>
     <row r="169" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C169">
         <v>168</v>
@@ -12686,6 +14196,15 @@
       <c r="F169">
         <v>0.443</v>
       </c>
+      <c r="G169" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="H169" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I169" s="8">
+        <v>10.5</v>
+      </c>
       <c r="J169" s="4">
         <v>10029</v>
       </c>
@@ -12737,10 +14256,10 @@
     </row>
     <row r="170" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C170">
         <v>169</v>
@@ -12754,6 +14273,15 @@
       <c r="F170">
         <v>0.502</v>
       </c>
+      <c r="G170" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="H170" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="I170" s="8">
+        <v>10.3</v>
+      </c>
       <c r="J170" s="4">
         <v>6289</v>
       </c>
@@ -12805,10 +14333,10 @@
     </row>
     <row r="171" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C171">
         <v>170</v>
@@ -12822,6 +14350,15 @@
       <c r="F171">
         <v>0.442</v>
       </c>
+      <c r="G171" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="H171" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I171" s="8">
+        <v>11.3</v>
+      </c>
       <c r="J171" s="4">
         <v>9121</v>
       </c>
@@ -12873,10 +14410,10 @@
     </row>
     <row r="172" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C172">
         <v>171</v>
@@ -12890,6 +14427,15 @@
       <c r="F172">
         <v>0.41399999999999998</v>
       </c>
+      <c r="G172" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H172" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I172" s="8">
+        <v>9.1</v>
+      </c>
       <c r="J172" s="4">
         <v>11374</v>
       </c>
@@ -12941,10 +14487,10 @@
     </row>
     <row r="173" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C173">
         <v>172</v>
@@ -12958,6 +14504,15 @@
       <c r="F173">
         <v>0.46300000000000002</v>
       </c>
+      <c r="G173" s="8">
+        <v>15</v>
+      </c>
+      <c r="H173" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="I173" s="8">
+        <v>14.5</v>
+      </c>
       <c r="J173" s="4">
         <v>8190</v>
       </c>
@@ -13009,10 +14564,10 @@
     </row>
     <row r="174" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C174">
         <v>173</v>
@@ -13026,6 +14581,15 @@
       <c r="F174">
         <v>0.48399999999999999</v>
       </c>
+      <c r="G174" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H174" s="8">
+        <v>5</v>
+      </c>
+      <c r="I174" s="8">
+        <v>10.199999999999999</v>
+      </c>
       <c r="J174" s="4">
         <v>9888</v>
       </c>
@@ -13077,10 +14641,10 @@
     </row>
     <row r="175" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C175">
         <v>174</v>
@@ -13094,6 +14658,15 @@
       <c r="F175">
         <v>0.377</v>
       </c>
+      <c r="G175" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="H175" s="8">
+        <v>4</v>
+      </c>
+      <c r="I175" s="8">
+        <v>11.8</v>
+      </c>
       <c r="J175" s="4">
         <v>9234</v>
       </c>
@@ -13145,10 +14718,10 @@
     </row>
     <row r="176" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C176">
         <v>175</v>
@@ -13162,6 +14735,15 @@
       <c r="F176">
         <v>0.433</v>
       </c>
+      <c r="G176" s="8">
+        <v>14.1</v>
+      </c>
+      <c r="H176" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="I176" s="8">
+        <v>15.5</v>
+      </c>
       <c r="J176" s="4">
         <v>6911</v>
       </c>
@@ -13213,10 +14795,10 @@
     </row>
     <row r="177" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C177">
         <v>176</v>
@@ -13230,6 +14812,15 @@
       <c r="F177">
         <v>0.42699999999999999</v>
       </c>
+      <c r="G177" s="8">
+        <v>6</v>
+      </c>
+      <c r="H177" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I177" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J177" s="4">
         <v>10821</v>
       </c>
@@ -13281,10 +14872,10 @@
     </row>
     <row r="178" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C178">
         <v>177</v>
@@ -13298,6 +14889,15 @@
       <c r="F178">
         <v>0.41</v>
       </c>
+      <c r="G178" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="H178" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I178" s="8">
+        <v>13.3</v>
+      </c>
       <c r="J178" s="4">
         <v>7542</v>
       </c>
@@ -13349,10 +14949,10 @@
     </row>
     <row r="179" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C179">
         <v>178</v>
@@ -13366,6 +14966,15 @@
       <c r="F179">
         <v>0.46500000000000002</v>
       </c>
+      <c r="G179" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H179" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="I179" s="8">
+        <v>10.7</v>
+      </c>
       <c r="J179" s="4">
         <v>8347</v>
       </c>
@@ -13417,10 +15026,10 @@
     </row>
     <row r="180" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C180">
         <v>179</v>
@@ -13434,6 +15043,15 @@
       <c r="F180">
         <v>0.46</v>
       </c>
+      <c r="G180" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="H180" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="I180" s="8">
+        <v>12.2</v>
+      </c>
       <c r="J180" s="4">
         <v>9636</v>
       </c>
@@ -13485,10 +15103,10 @@
     </row>
     <row r="181" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C181">
         <v>180</v>
@@ -13502,6 +15120,15 @@
       <c r="F181">
         <v>0.54200000000000004</v>
       </c>
+      <c r="G181" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="H181" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="I181" s="8">
+        <v>13</v>
+      </c>
       <c r="J181" s="4">
         <v>6871</v>
       </c>
@@ -13553,10 +15180,10 @@
     </row>
     <row r="182" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C182">
         <v>181</v>
@@ -13570,6 +15197,15 @@
       <c r="F182">
         <v>0.44600000000000001</v>
       </c>
+      <c r="G182" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H182" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="I182" s="8">
+        <v>10.9</v>
+      </c>
       <c r="J182" s="4">
         <v>9779</v>
       </c>
@@ -13621,10 +15257,10 @@
     </row>
     <row r="183" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C183">
         <v>182</v>
@@ -13638,6 +15274,15 @@
       <c r="F183">
         <v>0.40699999999999997</v>
       </c>
+      <c r="G183" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="H183" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I183" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J183" s="4">
         <v>10165</v>
       </c>
@@ -13689,10 +15334,10 @@
     </row>
     <row r="184" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C184">
         <v>183</v>
@@ -13706,6 +15351,15 @@
       <c r="F184">
         <v>0.41199999999999998</v>
       </c>
+      <c r="G184" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="H184" s="8">
+        <v>7</v>
+      </c>
+      <c r="I184" s="8">
+        <v>10.1</v>
+      </c>
       <c r="J184" s="4">
         <v>9116</v>
       </c>
@@ -13757,10 +15411,10 @@
     </row>
     <row r="185" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C185">
         <v>184</v>
@@ -13774,6 +15428,15 @@
       <c r="F185">
         <v>0.441</v>
       </c>
+      <c r="G185" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H185" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I185" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J185" s="4">
         <v>8056</v>
       </c>
@@ -13825,10 +15488,10 @@
     </row>
     <row r="186" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C186">
         <v>185</v>
@@ -13842,6 +15505,15 @@
       <c r="F186">
         <v>0.42699999999999999</v>
       </c>
+      <c r="G186" s="8">
+        <v>3</v>
+      </c>
+      <c r="H186" s="8">
+        <v>3</v>
+      </c>
+      <c r="I186" s="8">
+        <v>7.5</v>
+      </c>
       <c r="J186" s="4">
         <v>15510</v>
       </c>
@@ -13893,10 +15565,10 @@
     </row>
     <row r="187" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C187">
         <v>186</v>
@@ -13910,6 +15582,15 @@
       <c r="F187">
         <v>0.39</v>
       </c>
+      <c r="G187" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="H187" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I187" s="8">
+        <v>8.4</v>
+      </c>
       <c r="J187" s="4">
         <v>9559</v>
       </c>
@@ -13961,10 +15642,10 @@
     </row>
     <row r="188" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188">
         <v>187</v>
@@ -13978,6 +15659,15 @@
       <c r="F188">
         <v>0.499</v>
       </c>
+      <c r="G188" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="H188" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I188" s="8">
+        <v>13.3</v>
+      </c>
       <c r="J188" s="4">
         <v>5791</v>
       </c>
@@ -14029,10 +15719,10 @@
     </row>
     <row r="189" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C189">
         <v>188</v>
@@ -14046,6 +15736,15 @@
       <c r="F189">
         <v>0.40200000000000002</v>
       </c>
+      <c r="G189" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="H189" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I189" s="8">
+        <v>12.3</v>
+      </c>
       <c r="J189" s="4">
         <v>9525</v>
       </c>
@@ -14097,10 +15796,10 @@
     </row>
     <row r="190" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C190">
         <v>189</v>
@@ -14114,6 +15813,15 @@
       <c r="F190">
         <v>0.53900000000000003</v>
       </c>
+      <c r="G190" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H190" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I190" s="8">
+        <v>11.7</v>
+      </c>
       <c r="J190" s="4">
         <v>7914</v>
       </c>
@@ -14165,10 +15873,10 @@
     </row>
     <row r="191" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C191">
         <v>190</v>
@@ -14182,6 +15890,15 @@
       <c r="F191">
         <v>0.46600000000000003</v>
       </c>
+      <c r="G191" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="H191" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="I191" s="8">
+        <v>10.4</v>
+      </c>
       <c r="J191" s="4">
         <v>8674</v>
       </c>
@@ -14233,10 +15950,10 @@
     </row>
     <row r="192" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C192">
         <v>191</v>
@@ -14250,6 +15967,15 @@
       <c r="F192">
         <v>0.44400000000000001</v>
       </c>
+      <c r="G192" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="H192" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I192" s="8">
+        <v>15.5</v>
+      </c>
       <c r="J192" s="4">
         <v>7474</v>
       </c>
@@ -14301,10 +16027,10 @@
     </row>
     <row r="193" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C193">
         <v>192</v>
@@ -14318,6 +16044,15 @@
       <c r="F193">
         <v>0.497</v>
       </c>
+      <c r="G193" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H193" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="I193" s="8">
+        <v>10.6</v>
+      </c>
       <c r="J193" s="4">
         <v>9209</v>
       </c>
@@ -14369,10 +16104,10 @@
     </row>
     <row r="194" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C194">
         <v>193</v>
@@ -14386,6 +16121,15 @@
       <c r="F194">
         <v>0.45200000000000001</v>
       </c>
+      <c r="G194" s="8">
+        <v>5</v>
+      </c>
+      <c r="H194" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I194" s="8">
+        <v>11.6</v>
+      </c>
       <c r="J194" s="4">
         <v>8630</v>
       </c>
@@ -14437,10 +16181,10 @@
     </row>
     <row r="195" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C195">
         <v>194</v>
@@ -14454,6 +16198,15 @@
       <c r="F195">
         <v>0.503</v>
       </c>
+      <c r="G195" s="8">
+        <v>10</v>
+      </c>
+      <c r="H195" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="I195" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J195" s="4">
         <v>7630</v>
       </c>
@@ -14505,10 +16258,10 @@
     </row>
     <row r="196" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C196">
         <v>195</v>
@@ -14522,6 +16275,15 @@
       <c r="F196">
         <v>0.48899999999999999</v>
       </c>
+      <c r="G196" s="8">
+        <v>9</v>
+      </c>
+      <c r="H196" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="I196" s="8">
+        <v>10.1</v>
+      </c>
       <c r="J196" s="4">
         <v>7639</v>
       </c>
@@ -14573,10 +16335,10 @@
     </row>
     <row r="197" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C197">
         <v>196</v>
@@ -14590,6 +16352,15 @@
       <c r="F197">
         <v>0.49299999999999999</v>
       </c>
+      <c r="G197" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="H197" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I197" s="8">
+        <v>12.8</v>
+      </c>
       <c r="J197" s="4">
         <v>8967</v>
       </c>
@@ -14641,10 +16412,10 @@
     </row>
     <row r="198" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C198">
         <v>197</v>
@@ -14658,6 +16429,15 @@
       <c r="F198">
         <v>0.41599999999999998</v>
       </c>
+      <c r="G198" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H198" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="I198" s="8">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="J198" s="4">
         <v>12314</v>
       </c>
@@ -14709,10 +16489,10 @@
     </row>
     <row r="199" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C199">
         <v>198</v>
@@ -14726,6 +16506,15 @@
       <c r="F199">
         <v>0.434</v>
       </c>
+      <c r="G199" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="H199" s="8">
+        <v>3</v>
+      </c>
+      <c r="I199" s="8">
+        <v>8.9</v>
+      </c>
       <c r="J199" s="4">
         <v>13064</v>
       </c>
@@ -14777,10 +16566,10 @@
     </row>
     <row r="200" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C200">
         <v>199</v>
@@ -14794,6 +16583,15 @@
       <c r="F200">
         <v>0.41099999999999998</v>
       </c>
+      <c r="G200" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H200" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I200" s="8">
+        <v>13</v>
+      </c>
       <c r="J200" s="4">
         <v>10635</v>
       </c>
@@ -14845,10 +16643,10 @@
     </row>
     <row r="201" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C201">
         <v>200</v>
@@ -14862,6 +16660,15 @@
       <c r="F201">
         <v>0.36599999999999999</v>
       </c>
+      <c r="G201" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="H201" s="8">
+        <v>3</v>
+      </c>
+      <c r="I201" s="8">
+        <v>9.9</v>
+      </c>
       <c r="J201" s="4">
         <v>10502</v>
       </c>
@@ -14913,10 +16720,10 @@
     </row>
     <row r="202" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202">
         <v>201</v>
@@ -14930,6 +16737,15 @@
       <c r="F202">
         <v>0.437</v>
       </c>
+      <c r="G202" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="H202" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="I202" s="8">
+        <v>12.3</v>
+      </c>
       <c r="J202" s="4">
         <v>9848</v>
       </c>
@@ -14981,10 +16797,10 @@
     </row>
     <row r="203" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203">
         <v>202</v>
@@ -14998,6 +16814,15 @@
       <c r="F203">
         <v>0.433</v>
       </c>
+      <c r="G203" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="H203" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I203" s="8">
+        <v>10</v>
+      </c>
       <c r="J203" s="4">
         <v>9227</v>
       </c>
@@ -15049,10 +16874,10 @@
     </row>
     <row r="204" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204">
         <v>203</v>
@@ -15066,6 +16891,15 @@
       <c r="F204">
         <v>0.46500000000000002</v>
       </c>
+      <c r="G204" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="H204" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I204" s="8">
+        <v>14.1</v>
+      </c>
       <c r="J204" s="4">
         <v>10124</v>
       </c>
@@ -15117,10 +16951,10 @@
     </row>
     <row r="205" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205">
         <v>204</v>
@@ -15134,6 +16968,15 @@
       <c r="F205">
         <v>0.40699999999999997</v>
       </c>
+      <c r="G205" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H205" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I205" s="8">
+        <v>12.9</v>
+      </c>
       <c r="J205" s="4">
         <v>10128</v>
       </c>
@@ -15185,10 +17028,10 @@
     </row>
     <row r="206" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C206">
         <v>205</v>
@@ -15202,6 +17045,15 @@
       <c r="F206">
         <v>0.39400000000000002</v>
       </c>
+      <c r="G206" s="8">
+        <v>7</v>
+      </c>
+      <c r="H206" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="I206" s="8">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="J206" s="4">
         <v>11080</v>
       </c>
@@ -15253,10 +17105,10 @@
     </row>
     <row r="207" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C207">
         <v>206</v>
@@ -15270,6 +17122,15 @@
       <c r="F207">
         <v>0.46100000000000002</v>
       </c>
+      <c r="G207" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="H207" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I207" s="8">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="J207" s="4">
         <v>11819</v>
       </c>
@@ -15321,10 +17182,10 @@
     </row>
     <row r="208" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C208">
         <v>207</v>
@@ -15338,6 +17199,15 @@
       <c r="F208">
         <v>0.41699999999999998</v>
       </c>
+      <c r="G208" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H208" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I208" s="8">
+        <v>10.1</v>
+      </c>
       <c r="J208" s="4">
         <v>9559</v>
       </c>
@@ -15389,10 +17259,10 @@
     </row>
     <row r="209" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C209">
         <v>208</v>
@@ -15406,6 +17276,15 @@
       <c r="F209">
         <v>0.48599999999999999</v>
       </c>
+      <c r="G209" s="8">
+        <v>8.9</v>
+      </c>
+      <c r="H209" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="I209" s="8">
+        <v>14.1</v>
+      </c>
       <c r="J209" s="4">
         <v>6550</v>
       </c>
@@ -15457,10 +17336,10 @@
     </row>
     <row r="210" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C210">
         <v>209</v>
@@ -15474,6 +17353,15 @@
       <c r="F210">
         <v>0.41699999999999998</v>
       </c>
+      <c r="G210" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H210" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I210" s="8">
+        <v>9.5</v>
+      </c>
       <c r="J210" s="4">
         <v>10263</v>
       </c>
@@ -15525,10 +17413,10 @@
     </row>
     <row r="211" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C211">
         <v>210</v>
@@ -15542,6 +17430,15 @@
       <c r="F211">
         <v>0.48099999999999998</v>
       </c>
+      <c r="G211" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="H211" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I211" s="8">
+        <v>12.6</v>
+      </c>
       <c r="J211" s="4">
         <v>8028</v>
       </c>
@@ -15593,10 +17490,10 @@
     </row>
     <row r="212" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C212">
         <v>211</v>
@@ -15610,6 +17507,15 @@
       <c r="F212">
         <v>0.47399999999999998</v>
       </c>
+      <c r="G212" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="H212" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="I212" s="8">
+        <v>16.399999999999999</v>
+      </c>
       <c r="J212" s="4">
         <v>5998</v>
       </c>
@@ -15661,10 +17567,10 @@
     </row>
     <row r="213" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C213">
         <v>212</v>
@@ -15674,6 +17580,15 @@
       </c>
       <c r="F213">
         <v>0.41799999999999998</v>
+      </c>
+      <c r="G213" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="H213" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I213" s="8">
+        <v>7.3</v>
       </c>
       <c r="J213" s="4">
         <v>14151</v>
@@ -15712,10 +17627,10 @@
     </row>
     <row r="214" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C214">
         <v>213</v>
@@ -15729,6 +17644,15 @@
       <c r="F214">
         <v>0.46600000000000003</v>
       </c>
+      <c r="G214" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="H214" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="I214" s="8">
+        <v>15.9</v>
+      </c>
       <c r="J214" s="4">
         <v>8407</v>
       </c>
@@ -15780,10 +17704,10 @@
     </row>
     <row r="215" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C215">
         <v>214</v>
@@ -15797,6 +17721,15 @@
       <c r="F215">
         <v>0.432</v>
       </c>
+      <c r="G215" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="H215" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I215" s="8">
+        <v>10.7</v>
+      </c>
       <c r="J215" s="4">
         <v>11830</v>
       </c>
@@ -15848,10 +17781,10 @@
     </row>
     <row r="216" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C216">
         <v>215</v>
@@ -15865,6 +17798,15 @@
       <c r="F216">
         <v>0.40500000000000003</v>
       </c>
+      <c r="G216" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="H216" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I216" s="8">
+        <v>11.9</v>
+      </c>
       <c r="J216" s="4">
         <v>11623</v>
       </c>
@@ -15916,10 +17858,10 @@
     </row>
     <row r="217" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C217">
         <v>216</v>
@@ -15933,6 +17875,15 @@
       <c r="F217">
         <v>0.41199999999999998</v>
       </c>
+      <c r="G217" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="H217" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I217" s="8">
+        <v>12.9</v>
+      </c>
       <c r="J217" s="4">
         <v>10672</v>
       </c>
@@ -15984,10 +17935,10 @@
     </row>
     <row r="218" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C218">
         <v>217</v>
@@ -16001,6 +17952,15 @@
       <c r="F218">
         <v>0.49199999999999999</v>
       </c>
+      <c r="G218" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="H218" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="I218" s="8">
+        <v>10.6</v>
+      </c>
       <c r="J218" s="4">
         <v>9170</v>
       </c>
@@ -16052,10 +18012,10 @@
     </row>
     <row r="219" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C219">
         <v>218</v>
@@ -16069,6 +18029,15 @@
       <c r="F219">
         <v>0.40500000000000003</v>
       </c>
+      <c r="G219" s="8">
+        <v>6</v>
+      </c>
+      <c r="H219" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I219" s="8">
+        <v>10</v>
+      </c>
       <c r="J219" s="4">
         <v>12398</v>
       </c>
@@ -16120,10 +18089,10 @@
     </row>
     <row r="220" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C220">
         <v>219</v>
@@ -16137,6 +18106,15 @@
       <c r="F220">
         <v>0.41599999999999998</v>
       </c>
+      <c r="G220" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="H220" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="I220" s="8">
+        <v>11.3</v>
+      </c>
       <c r="J220" s="4">
         <v>10329</v>
       </c>
@@ -16188,10 +18166,10 @@
     </row>
     <row r="221" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C221">
         <v>220</v>
@@ -16205,6 +18183,15 @@
       <c r="F221">
         <v>0.38900000000000001</v>
       </c>
+      <c r="G221" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H221" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="I221" s="8">
+        <v>13.3</v>
+      </c>
       <c r="J221" s="4">
         <v>10498</v>
       </c>
@@ -16256,10 +18243,10 @@
     </row>
     <row r="222" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C222">
         <v>221</v>
@@ -16273,6 +18260,15 @@
       <c r="F222">
         <v>0.42699999999999999</v>
       </c>
+      <c r="G222" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="H222" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I222" s="8">
+        <v>10</v>
+      </c>
       <c r="J222" s="4">
         <v>13947</v>
       </c>
@@ -16324,10 +18320,10 @@
     </row>
     <row r="223" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C223">
         <v>222</v>
@@ -16341,6 +18337,15 @@
       <c r="F223">
         <v>0.40300000000000002</v>
       </c>
+      <c r="G223" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H223" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I223" s="8">
+        <v>13</v>
+      </c>
       <c r="J223" s="4">
         <v>10693</v>
       </c>
@@ -16392,10 +18397,10 @@
     </row>
     <row r="224" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C224">
         <v>223</v>
@@ -16409,6 +18414,15 @@
       <c r="F224">
         <v>0.41899999999999998</v>
       </c>
+      <c r="G224" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H224" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I224" s="8">
+        <v>11.5</v>
+      </c>
       <c r="J224" s="4">
         <v>12539</v>
       </c>
@@ -16460,10 +18474,10 @@
     </row>
     <row r="225" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C225">
         <v>224</v>
@@ -16477,6 +18491,15 @@
       <c r="F225">
         <v>0.41799999999999998</v>
       </c>
+      <c r="G225" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H225" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I225" s="8">
+        <v>11</v>
+      </c>
       <c r="J225" s="4">
         <v>12348</v>
       </c>
@@ -16528,10 +18551,10 @@
     </row>
     <row r="226" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C226">
         <v>225</v>
@@ -16545,6 +18568,15 @@
       <c r="F226">
         <v>0.41899999999999998</v>
       </c>
+      <c r="G226" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="H226" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I226" s="8">
+        <v>10.4</v>
+      </c>
       <c r="J226" s="4">
         <v>13338</v>
       </c>
@@ -16596,10 +18628,10 @@
     </row>
     <row r="227" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C227">
         <v>226</v>
@@ -16613,6 +18645,15 @@
       <c r="F227">
         <v>0.41399999999999998</v>
       </c>
+      <c r="G227" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="H227" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I227" s="8">
+        <v>17</v>
+      </c>
       <c r="J227" s="4">
         <v>11736</v>
       </c>
@@ -16664,10 +18705,10 @@
     </row>
     <row r="228" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C228">
         <v>227</v>
@@ -16681,6 +18722,15 @@
       <c r="F228">
         <v>0.41299999999999998</v>
       </c>
+      <c r="G228" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H228" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I228" s="8">
+        <v>12.6</v>
+      </c>
       <c r="J228" s="4">
         <v>10567</v>
       </c>
@@ -16732,10 +18782,10 @@
     </row>
     <row r="229" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C229">
         <v>228</v>
@@ -16749,6 +18799,15 @@
       <c r="F229">
         <v>0.41699999999999998</v>
       </c>
+      <c r="G229" s="8">
+        <v>6</v>
+      </c>
+      <c r="H229" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I229" s="8">
+        <v>12.7</v>
+      </c>
       <c r="J229" s="4">
         <v>10685</v>
       </c>
@@ -16800,10 +18859,10 @@
     </row>
     <row r="230" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C230">
         <v>229</v>
@@ -16817,6 +18876,15 @@
       <c r="F230">
         <v>0.39300000000000002</v>
       </c>
+      <c r="G230" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H230" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I230" s="8">
+        <v>12.9</v>
+      </c>
       <c r="J230" s="4">
         <v>11401</v>
       </c>
@@ -16868,10 +18936,10 @@
     </row>
     <row r="231" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C231">
         <v>230</v>
@@ -16885,6 +18953,15 @@
       <c r="F231">
         <v>0.48499999999999999</v>
       </c>
+      <c r="G231" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H231" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="I231" s="8">
+        <v>8.5</v>
+      </c>
       <c r="J231" s="4">
         <v>14912</v>
       </c>
@@ -16936,10 +19013,10 @@
     </row>
     <row r="232" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C232">
         <v>231</v>
@@ -16953,6 +19030,15 @@
       <c r="F232">
         <v>0.39700000000000002</v>
       </c>
+      <c r="G232" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="H232" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I232" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J232" s="4">
         <v>11693</v>
       </c>
@@ -17004,10 +19090,10 @@
     </row>
     <row r="233" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C233">
         <v>232</v>
@@ -17021,6 +19107,15 @@
       <c r="F233">
         <v>0.40200000000000002</v>
       </c>
+      <c r="G233" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="H233" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="I233" s="8">
+        <v>12.2</v>
+      </c>
       <c r="J233" s="4">
         <v>12545</v>
       </c>
@@ -17072,10 +19167,10 @@
     </row>
     <row r="234" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C234">
         <v>233</v>
@@ -17089,6 +19184,15 @@
       <c r="F234">
         <v>0.43099999999999999</v>
       </c>
+      <c r="G234" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="H234" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="I234" s="8">
+        <v>7.2</v>
+      </c>
       <c r="J234" s="4">
         <v>17437</v>
       </c>
@@ -17140,10 +19244,10 @@
     </row>
     <row r="235" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C235">
         <v>234</v>
@@ -17157,6 +19261,15 @@
       <c r="F235">
         <v>0.43</v>
       </c>
+      <c r="G235" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H235" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I235" s="8">
+        <v>11.3</v>
+      </c>
       <c r="J235" s="4">
         <v>13833</v>
       </c>
@@ -17208,10 +19321,10 @@
     </row>
     <row r="236" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C236">
         <v>235</v>
@@ -17225,6 +19338,15 @@
       <c r="F236">
         <v>0.40799999999999997</v>
       </c>
+      <c r="G236" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="H236" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="I236" s="8">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="J236" s="4">
         <v>13609</v>
       </c>
@@ -17276,10 +19398,10 @@
     </row>
     <row r="237" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C237">
         <v>236</v>
@@ -17293,6 +19415,15 @@
       <c r="F237">
         <v>0.41199999999999998</v>
       </c>
+      <c r="G237" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="H237" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I237" s="8">
+        <v>13.1</v>
+      </c>
       <c r="J237" s="4">
         <v>10300</v>
       </c>
@@ -17344,10 +19475,10 @@
     </row>
     <row r="238" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C238">
         <v>237</v>
@@ -17361,6 +19492,15 @@
       <c r="F238">
         <v>0.46</v>
       </c>
+      <c r="G238" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="H238" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="I238" s="8">
+        <v>8.9</v>
+      </c>
       <c r="J238" s="4">
         <v>14907</v>
       </c>
@@ -17412,10 +19552,10 @@
     </row>
     <row r="239" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C239">
         <v>238</v>
@@ -17429,6 +19569,15 @@
       <c r="F239">
         <v>0.372</v>
       </c>
+      <c r="G239" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="H239" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I239" s="8">
+        <v>11.8</v>
+      </c>
       <c r="J239" s="4">
         <v>12467</v>
       </c>
@@ -17480,10 +19629,10 @@
     </row>
     <row r="240" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C240">
         <v>239</v>
@@ -17497,6 +19646,15 @@
       <c r="F240">
         <v>0.46700000000000003</v>
       </c>
+      <c r="G240" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="H240" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="I240" s="8">
+        <v>11.8</v>
+      </c>
       <c r="J240" s="4">
         <v>9711</v>
       </c>
@@ -17548,10 +19706,10 @@
     </row>
     <row r="241" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C241">
         <v>240</v>
@@ -17565,6 +19723,15 @@
       <c r="F241">
         <v>0.44900000000000001</v>
       </c>
+      <c r="G241" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="H241" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I241" s="8">
+        <v>6.9</v>
+      </c>
       <c r="J241" s="4">
         <v>17587</v>
       </c>
@@ -17616,10 +19783,10 @@
     </row>
     <row r="242" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C242">
         <v>241</v>
@@ -17633,6 +19800,15 @@
       <c r="F242">
         <v>0.433</v>
       </c>
+      <c r="G242" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H242" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="I242" s="8">
+        <v>9.5</v>
+      </c>
       <c r="J242" s="4">
         <v>14384</v>
       </c>
@@ -17684,10 +19860,10 @@
     </row>
     <row r="243" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C243">
         <v>242</v>
@@ -17701,6 +19877,15 @@
       <c r="F243">
         <v>0.41699999999999998</v>
       </c>
+      <c r="G243" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="H243" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I243" s="8">
+        <v>12.7</v>
+      </c>
       <c r="J243" s="4">
         <v>9929</v>
       </c>
@@ -17752,10 +19937,10 @@
     </row>
     <row r="244" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C244">
         <v>243</v>
@@ -17769,6 +19954,15 @@
       <c r="F244">
         <v>0.49299999999999999</v>
       </c>
+      <c r="G244" s="8">
+        <v>4</v>
+      </c>
+      <c r="H244" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="I244" s="8">
+        <v>9.9</v>
+      </c>
       <c r="J244" s="4">
         <v>15354</v>
       </c>
@@ -17820,10 +20014,10 @@
     </row>
     <row r="245" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C245">
         <v>244</v>
@@ -17837,6 +20031,15 @@
       <c r="F245">
         <v>0.42</v>
       </c>
+      <c r="G245" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H245" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I245" s="8">
+        <v>9.1</v>
+      </c>
       <c r="J245" s="4">
         <v>14239</v>
       </c>
@@ -17888,10 +20091,10 @@
     </row>
     <row r="246" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C246">
         <v>245</v>
@@ -17905,6 +20108,15 @@
       <c r="F246">
         <v>0.42599999999999999</v>
       </c>
+      <c r="G246" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="H246" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="I246" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J246" s="4">
         <v>10957</v>
       </c>
@@ -17956,10 +20168,10 @@
     </row>
     <row r="247" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C247">
         <v>246</v>
@@ -17973,6 +20185,15 @@
       <c r="F247">
         <v>0.439</v>
       </c>
+      <c r="G247" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="H247" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="I247" s="8">
+        <v>12.5</v>
+      </c>
       <c r="J247" s="4">
         <v>9146</v>
       </c>
@@ -18024,10 +20245,10 @@
     </row>
     <row r="248" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C248">
         <v>247</v>
@@ -18041,6 +20262,15 @@
       <c r="F248">
         <v>0.38600000000000001</v>
       </c>
+      <c r="G248" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H248" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I248" s="8">
+        <v>13.1</v>
+      </c>
       <c r="J248" s="4">
         <v>12115</v>
       </c>
@@ -18092,10 +20322,10 @@
     </row>
     <row r="249" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C249">
         <v>248</v>
@@ -18109,6 +20339,15 @@
       <c r="F249">
         <v>0.40899999999999997</v>
       </c>
+      <c r="G249" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H249" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I249" s="8">
+        <v>17.3</v>
+      </c>
       <c r="J249" s="4">
         <v>9848</v>
       </c>
@@ -18160,10 +20399,10 @@
     </row>
     <row r="250" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C250">
         <v>249</v>
@@ -18177,6 +20416,15 @@
       <c r="F250">
         <v>0.39600000000000002</v>
       </c>
+      <c r="G250" s="8">
+        <v>9</v>
+      </c>
+      <c r="H250" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="I250" s="8">
+        <v>11.7</v>
+      </c>
       <c r="J250" s="4">
         <v>10265</v>
       </c>
@@ -18228,10 +20476,10 @@
     </row>
     <row r="251" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C251">
         <v>250</v>
@@ -18245,6 +20493,15 @@
       <c r="F251">
         <v>0.41499999999999998</v>
       </c>
+      <c r="G251" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="H251" s="8">
+        <v>3</v>
+      </c>
+      <c r="I251" s="8">
+        <v>7.6</v>
+      </c>
       <c r="J251" s="4">
         <v>9191</v>
       </c>
@@ -18296,10 +20553,10 @@
     </row>
     <row r="252" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C252">
         <v>251</v>
@@ -18313,6 +20570,15 @@
       <c r="F252">
         <v>0.39900000000000002</v>
       </c>
+      <c r="G252" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="H252" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I252" s="8">
+        <v>13.2</v>
+      </c>
       <c r="J252" s="4">
         <v>11552</v>
       </c>
@@ -18364,10 +20630,10 @@
     </row>
     <row r="253" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C253">
         <v>252</v>
@@ -18381,6 +20647,15 @@
       <c r="F253">
         <v>0.45700000000000002</v>
       </c>
+      <c r="G253" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H253" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="I253" s="8">
+        <v>12.5</v>
+      </c>
       <c r="J253" s="4">
         <v>9228</v>
       </c>
@@ -18432,10 +20707,10 @@
     </row>
     <row r="254" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C254">
         <v>253</v>
@@ -18449,6 +20724,15 @@
       <c r="F254">
         <v>0.437</v>
       </c>
+      <c r="G254" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="H254" s="8">
+        <v>6</v>
+      </c>
+      <c r="I254" s="8">
+        <v>14.5</v>
+      </c>
       <c r="J254" s="4">
         <v>11001</v>
       </c>
@@ -18500,10 +20784,10 @@
     </row>
     <row r="255" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C255">
         <v>254</v>
@@ -18517,6 +20801,15 @@
       <c r="F255">
         <v>0.40300000000000002</v>
       </c>
+      <c r="G255" s="8">
+        <v>6</v>
+      </c>
+      <c r="H255" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="I255" s="8">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="J255" s="4">
         <v>10688</v>
       </c>
@@ -18568,10 +20861,10 @@
     </row>
     <row r="256" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C256">
         <v>255</v>
@@ -18585,6 +20878,15 @@
       <c r="F256">
         <v>0.40500000000000003</v>
       </c>
+      <c r="G256" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="H256" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="I256" s="8">
+        <v>7.9</v>
+      </c>
       <c r="J256" s="4">
         <v>15465</v>
       </c>
@@ -18636,10 +20938,10 @@
     </row>
     <row r="257" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C257">
         <v>256</v>
@@ -18653,6 +20955,15 @@
       <c r="F257">
         <v>0.434</v>
       </c>
+      <c r="G257" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="H257" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="I257" s="8">
+        <v>10.3</v>
+      </c>
       <c r="J257" s="4">
         <v>9336</v>
       </c>
@@ -18704,10 +21015,10 @@
     </row>
     <row r="258" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C258">
         <v>257</v>
@@ -18721,6 +21032,15 @@
       <c r="F258">
         <v>0.41399999999999998</v>
       </c>
+      <c r="G258" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H258" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I258" s="8">
+        <v>9.6</v>
+      </c>
       <c r="J258" s="4">
         <v>12864</v>
       </c>
@@ -18772,10 +21092,10 @@
     </row>
     <row r="259" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C259">
         <v>258</v>
@@ -18789,6 +21109,15 @@
       <c r="F259">
         <v>0.41299999999999998</v>
       </c>
+      <c r="G259" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H259" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="I259" s="8">
+        <v>11.8</v>
+      </c>
       <c r="J259" s="4">
         <v>11741</v>
       </c>
@@ -18840,10 +21169,10 @@
     </row>
     <row r="260" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C260">
         <v>259</v>
@@ -18857,6 +21186,15 @@
       <c r="F260">
         <v>0.42299999999999999</v>
       </c>
+      <c r="G260" s="8">
+        <v>7</v>
+      </c>
+      <c r="H260" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="I260" s="8">
+        <v>9.1</v>
+      </c>
       <c r="J260" s="4">
         <v>12733</v>
       </c>
@@ -18908,10 +21246,10 @@
     </row>
     <row r="261" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C261">
         <v>260</v>
@@ -18925,6 +21263,15 @@
       <c r="F261">
         <v>0.47399999999999998</v>
       </c>
+      <c r="G261" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="H261" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="I261" s="8">
+        <v>11.5</v>
+      </c>
       <c r="J261" s="4">
         <v>13778</v>
       </c>
@@ -18976,10 +21323,10 @@
     </row>
     <row r="262" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C262">
         <v>261</v>
@@ -18993,6 +21340,15 @@
       <c r="F262">
         <v>0.45</v>
       </c>
+      <c r="G262" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="H262" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="I262" s="8">
+        <v>9</v>
+      </c>
       <c r="J262" s="4">
         <v>12053</v>
       </c>
@@ -19044,10 +21400,10 @@
     </row>
     <row r="263" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C263">
         <v>262</v>
@@ -19061,6 +21417,15 @@
       <c r="F263">
         <v>0.46400000000000002</v>
       </c>
+      <c r="G263" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="H263" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="I263" s="8">
+        <v>11.7</v>
+      </c>
       <c r="J263" s="4">
         <v>11668</v>
       </c>
@@ -19112,10 +21477,10 @@
     </row>
     <row r="264" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C264">
         <v>263</v>
@@ -19129,6 +21494,15 @@
       <c r="F264">
         <v>0.42</v>
       </c>
+      <c r="G264" s="8">
+        <v>8</v>
+      </c>
+      <c r="H264" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I264" s="8">
+        <v>11</v>
+      </c>
       <c r="J264" s="4">
         <v>11547</v>
       </c>
@@ -19180,10 +21554,10 @@
     </row>
     <row r="265" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C265">
         <v>264</v>
@@ -19197,6 +21571,15 @@
       <c r="F265">
         <v>0.39200000000000002</v>
       </c>
+      <c r="G265" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H265" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I265" s="8">
+        <v>7.4</v>
+      </c>
       <c r="J265" s="4">
         <v>14852</v>
       </c>
@@ -19248,10 +21631,10 @@
     </row>
     <row r="266" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C266">
         <v>265</v>
@@ -19265,6 +21648,15 @@
       <c r="F266">
         <v>0.42299999999999999</v>
       </c>
+      <c r="G266" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="H266" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="I266" s="8">
+        <v>14.6</v>
+      </c>
       <c r="J266" s="4">
         <v>8644</v>
       </c>
@@ -19316,10 +21708,10 @@
     </row>
     <row r="267" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C267">
         <v>266</v>
@@ -19333,6 +21725,15 @@
       <c r="F267">
         <v>0.38700000000000001</v>
       </c>
+      <c r="G267" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="H267" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I267" s="8">
+        <v>8.5</v>
+      </c>
       <c r="J267" s="4">
         <v>11673</v>
       </c>
@@ -19384,10 +21785,10 @@
     </row>
     <row r="268" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C268">
         <v>267</v>
@@ -19401,6 +21802,15 @@
       <c r="F268">
         <v>0.39900000000000002</v>
       </c>
+      <c r="G268" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H268" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I268" s="8">
+        <v>11.1</v>
+      </c>
       <c r="J268" s="4">
         <v>13896</v>
       </c>
@@ -19452,10 +21862,10 @@
     </row>
     <row r="269" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C269">
         <v>268</v>
@@ -19469,6 +21879,15 @@
       <c r="F269">
         <v>0.40500000000000003</v>
       </c>
+      <c r="G269" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H269" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="I269" s="8">
+        <v>12.2</v>
+      </c>
       <c r="J269" s="4">
         <v>9101</v>
       </c>
@@ -19520,10 +21939,10 @@
     </row>
     <row r="270" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C270">
         <v>269</v>
@@ -19537,6 +21956,15 @@
       <c r="F270">
         <v>0.45</v>
       </c>
+      <c r="G270" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H270" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I270" s="8">
+        <v>11.4</v>
+      </c>
       <c r="J270" s="4">
         <v>14495</v>
       </c>
@@ -19588,10 +22016,10 @@
     </row>
     <row r="271" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C271">
         <v>270</v>
@@ -19605,6 +22033,15 @@
       <c r="F271">
         <v>0.439</v>
       </c>
+      <c r="G271" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H271" s="8">
+        <v>7</v>
+      </c>
+      <c r="I271" s="8">
+        <v>13.3</v>
+      </c>
       <c r="J271" s="4">
         <v>9373</v>
       </c>
@@ -19656,10 +22093,10 @@
     </row>
     <row r="272" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C272">
         <v>271</v>
@@ -19673,6 +22110,15 @@
       <c r="F272">
         <v>0.35499999999999998</v>
       </c>
+      <c r="G272" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H272" s="8">
+        <v>4</v>
+      </c>
+      <c r="I272" s="8">
+        <v>11.4</v>
+      </c>
       <c r="J272" s="4">
         <v>10581</v>
       </c>
@@ -19724,10 +22170,10 @@
     </row>
     <row r="273" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C273">
         <v>272</v>
@@ -19741,6 +22187,15 @@
       <c r="F273">
         <v>0.436</v>
       </c>
+      <c r="G273" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="H273" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="I273" s="8">
+        <v>12.6</v>
+      </c>
       <c r="J273" s="4">
         <v>10844</v>
       </c>
@@ -19792,10 +22247,10 @@
     </row>
     <row r="274" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C274">
         <v>273</v>
@@ -19809,6 +22264,15 @@
       <c r="F274">
         <v>0.435</v>
       </c>
+      <c r="G274" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="H274" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="I274" s="8">
+        <v>16</v>
+      </c>
       <c r="J274" s="4">
         <v>9028</v>
       </c>
@@ -19860,10 +22324,10 @@
     </row>
     <row r="275" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C275">
         <v>274</v>
@@ -19877,6 +22341,15 @@
       <c r="F275">
         <v>0.40899999999999997</v>
       </c>
+      <c r="G275" s="8">
+        <v>8</v>
+      </c>
+      <c r="H275" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="I275" s="8">
+        <v>12.3</v>
+      </c>
       <c r="J275" s="4">
         <v>14144</v>
       </c>
@@ -19928,10 +22401,10 @@
     </row>
     <row r="276" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C276">
         <v>275</v>
@@ -19945,6 +22418,15 @@
       <c r="F276">
         <v>0.37</v>
       </c>
+      <c r="G276" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="H276" s="8">
+        <v>4</v>
+      </c>
+      <c r="I276" s="8">
+        <v>12.6</v>
+      </c>
       <c r="J276" s="4">
         <v>11254</v>
       </c>
@@ -19996,10 +22478,10 @@
     </row>
     <row r="277" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C277">
         <v>276</v>
@@ -20013,6 +22495,15 @@
       <c r="F277">
         <v>0.40899999999999997</v>
       </c>
+      <c r="G277" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="H277" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="I277" s="8">
+        <v>13.4</v>
+      </c>
       <c r="J277" s="4">
         <v>9247</v>
       </c>
@@ -20064,10 +22555,10 @@
     </row>
     <row r="278" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C278">
         <v>277</v>
@@ -20081,6 +22572,15 @@
       <c r="F278">
         <v>0.38700000000000001</v>
       </c>
+      <c r="G278" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H278" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I278" s="8">
+        <v>10.6</v>
+      </c>
       <c r="J278" s="4">
         <v>11490</v>
       </c>
@@ -20132,10 +22632,10 @@
     </row>
     <row r="279" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C279">
         <v>278</v>
@@ -20149,6 +22649,15 @@
       <c r="F279">
         <v>0.432</v>
       </c>
+      <c r="G279" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H279" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="I279" s="8">
+        <v>14.8</v>
+      </c>
       <c r="J279" s="4">
         <v>8958</v>
       </c>
@@ -20200,10 +22709,10 @@
     </row>
     <row r="280" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C280">
         <v>279</v>
@@ -20217,6 +22726,15 @@
       <c r="F280">
         <v>0.433</v>
       </c>
+      <c r="G280" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="H280" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I280" s="8">
+        <v>10.3</v>
+      </c>
       <c r="J280" s="4">
         <v>12509</v>
       </c>
@@ -20268,10 +22786,10 @@
     </row>
     <row r="281" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C281">
         <v>280</v>
@@ -20285,6 +22803,15 @@
       <c r="F281">
         <v>0.39800000000000002</v>
       </c>
+      <c r="G281" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H281" s="8">
+        <v>4</v>
+      </c>
+      <c r="I281" s="8">
+        <v>11</v>
+      </c>
       <c r="J281" s="4">
         <v>11466</v>
       </c>
@@ -20336,10 +22863,10 @@
     </row>
     <row r="282" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C282">
         <v>281</v>
@@ -20353,6 +22880,15 @@
       <c r="F282">
         <v>0.36799999999999999</v>
       </c>
+      <c r="G282" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="H282" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I282" s="8">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="J282" s="4">
         <v>11943</v>
       </c>
@@ -20404,10 +22940,10 @@
     </row>
     <row r="283" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C283">
         <v>282</v>
@@ -20421,6 +22957,15 @@
       <c r="F283">
         <v>0.40699999999999997</v>
       </c>
+      <c r="G283" s="8">
+        <v>8</v>
+      </c>
+      <c r="H283" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="I283" s="8">
+        <v>12.1</v>
+      </c>
       <c r="J283" s="4">
         <v>12514</v>
       </c>
@@ -20472,10 +23017,10 @@
     </row>
     <row r="284" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C284">
         <v>283</v>
@@ -20489,6 +23034,15 @@
       <c r="F284">
         <v>0.437</v>
       </c>
+      <c r="G284" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H284" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="I284" s="8">
+        <v>11.9</v>
+      </c>
       <c r="J284" s="4">
         <v>10758</v>
       </c>
@@ -20540,10 +23094,10 @@
     </row>
     <row r="285" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C285">
         <v>284</v>
@@ -20557,6 +23111,15 @@
       <c r="F285">
         <v>0.375</v>
       </c>
+      <c r="G285" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="H285" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I285" s="8">
+        <v>10.8</v>
+      </c>
       <c r="J285" s="4">
         <v>12230</v>
       </c>
@@ -20608,10 +23171,10 @@
     </row>
     <row r="286" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C286">
         <v>285</v>
@@ -20625,6 +23188,15 @@
       <c r="F286">
         <v>0.45100000000000001</v>
       </c>
+      <c r="G286" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H286" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="I286" s="8">
+        <v>13.3</v>
+      </c>
       <c r="J286" s="4">
         <v>9253</v>
       </c>
@@ -20676,10 +23248,10 @@
     </row>
     <row r="287" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C287">
         <v>286</v>
@@ -20693,6 +23265,15 @@
       <c r="F287">
         <v>0.39600000000000002</v>
       </c>
+      <c r="G287" s="8">
+        <v>8</v>
+      </c>
+      <c r="H287" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="I287" s="8">
+        <v>11.9</v>
+      </c>
       <c r="J287" s="4">
         <v>11226</v>
       </c>
@@ -20744,10 +23325,10 @@
     </row>
     <row r="288" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C288">
         <v>287</v>
@@ -20761,6 +23342,15 @@
       <c r="F288">
         <v>0.38200000000000001</v>
       </c>
+      <c r="G288" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="H288" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I288" s="8">
+        <v>12.4</v>
+      </c>
       <c r="J288" s="4">
         <v>13150</v>
       </c>
@@ -20812,10 +23402,10 @@
     </row>
     <row r="289" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C289">
         <v>288</v>
@@ -20829,6 +23419,15 @@
       <c r="F289">
         <v>0.44</v>
       </c>
+      <c r="G289" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H289" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I289" s="8">
+        <v>11.3</v>
+      </c>
       <c r="J289" s="4">
         <v>13003</v>
       </c>
@@ -20880,10 +23479,10 @@
     </row>
     <row r="290" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C290">
         <v>289</v>
@@ -20897,6 +23496,15 @@
       <c r="F290">
         <v>0.45600000000000002</v>
       </c>
+      <c r="G290" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H290" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I290" s="8">
+        <v>10.6</v>
+      </c>
       <c r="J290" s="4">
         <v>14409</v>
       </c>
@@ -20948,10 +23556,10 @@
     </row>
     <row r="291" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C291">
         <v>290</v>
@@ -20965,6 +23573,15 @@
       <c r="F291">
         <v>0.41799999999999998</v>
       </c>
+      <c r="G291" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="H291" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="I291" s="8">
+        <v>13.2</v>
+      </c>
       <c r="J291" s="4">
         <v>12899</v>
       </c>
@@ -21016,10 +23633,10 @@
     </row>
     <row r="292" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C292">
         <v>291</v>
@@ -21033,6 +23650,15 @@
       <c r="F292">
         <v>0.40200000000000002</v>
       </c>
+      <c r="G292" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H292" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I292" s="8">
+        <v>11.2</v>
+      </c>
       <c r="J292" s="4">
         <v>11141</v>
       </c>
@@ -21084,10 +23710,10 @@
     </row>
     <row r="293" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C293">
         <v>292</v>
@@ -21101,6 +23727,15 @@
       <c r="F293">
         <v>0.38100000000000001</v>
       </c>
+      <c r="G293" s="8">
+        <v>4</v>
+      </c>
+      <c r="H293" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="I293" s="8">
+        <v>8.4</v>
+      </c>
       <c r="J293" s="4">
         <v>13644</v>
       </c>
@@ -21152,10 +23787,10 @@
     </row>
     <row r="294" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C294">
         <v>293</v>
@@ -21169,6 +23804,15 @@
       <c r="F294">
         <v>0.36899999999999999</v>
       </c>
+      <c r="G294" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H294" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I294" s="8">
+        <v>12.1</v>
+      </c>
       <c r="J294" s="4">
         <v>11913</v>
       </c>
@@ -21220,10 +23864,10 @@
     </row>
     <row r="295" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C295">
         <v>294</v>
@@ -21237,6 +23881,15 @@
       <c r="F295">
         <v>0.41399999999999998</v>
       </c>
+      <c r="G295" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H295" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="I295" s="8">
+        <v>13.5</v>
+      </c>
       <c r="J295" s="4">
         <v>8826</v>
       </c>
@@ -21288,10 +23941,10 @@
     </row>
     <row r="296" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C296">
         <v>295</v>
@@ -21305,6 +23958,15 @@
       <c r="F296">
         <v>0.40400000000000003</v>
       </c>
+      <c r="G296" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H296" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I296" s="8">
+        <v>9</v>
+      </c>
       <c r="J296" s="4">
         <v>14615</v>
       </c>
@@ -21356,10 +24018,10 @@
     </row>
     <row r="297" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C297">
         <v>296</v>
@@ -21373,6 +24035,15 @@
       <c r="F297">
         <v>0.44</v>
       </c>
+      <c r="G297" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="H297" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I297" s="8">
+        <v>11.4</v>
+      </c>
       <c r="J297" s="4">
         <v>11438</v>
       </c>
@@ -21424,10 +24095,10 @@
     </row>
     <row r="298" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C298">
         <v>297</v>
@@ -21441,6 +24112,15 @@
       <c r="F298">
         <v>0.40899999999999997</v>
       </c>
+      <c r="G298" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H298" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="I298" s="8">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="J298" s="4">
         <v>12237</v>
       </c>
@@ -21492,10 +24172,10 @@
     </row>
     <row r="299" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C299">
         <v>298</v>
@@ -21509,6 +24189,15 @@
       <c r="F299">
         <v>0.38700000000000001</v>
       </c>
+      <c r="G299" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="H299" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I299" s="8">
+        <v>13.2</v>
+      </c>
       <c r="J299" s="4">
         <v>12473</v>
       </c>
@@ -21560,10 +24249,10 @@
     </row>
     <row r="300" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C300">
         <v>299</v>
@@ -21577,6 +24266,15 @@
       <c r="F300">
         <v>0.438</v>
       </c>
+      <c r="G300" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="H300" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="I300" s="8">
+        <v>9.9</v>
+      </c>
       <c r="J300" s="4">
         <v>13853</v>
       </c>
@@ -21628,10 +24326,10 @@
     </row>
     <row r="301" spans="1:31" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C301">
         <v>300</v>
@@ -21645,6 +24343,15 @@
       <c r="F301">
         <v>0.38300000000000001</v>
       </c>
+      <c r="G301" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="H301" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="I301" s="8">
+        <v>11.1</v>
+      </c>
       <c r="J301" s="4">
         <v>11279</v>
       </c>
@@ -21696,7 +24403,7 @@
     </row>
     <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D302" s="7"/>
     </row>

--- a/final data set.xlsx
+++ b/final data set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81014BED-09EA-BE4D-B545-5E382167E14B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E9B15A-FCEA-A44B-B989-085F234C4FE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="25440" windowHeight="14420" xr2:uid="{DC3E5AA7-7033-AF48-8182-68477F67646B}"/>
+    <workbookView xWindow="1900" yWindow="1620" windowWidth="25440" windowHeight="14420" xr2:uid="{DC3E5AA7-7033-AF48-8182-68477F67646B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -849,11 +849,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -887,8 +886,8 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,15 +1204,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793A7E2-1E9C-554D-B7C1-C1CBE767890F}">
   <dimension ref="A1:AJ332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:XFD302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N305" sqref="N305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="36" width="10.83203125" style="2"/>
+    <col min="4" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="36" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -25681,7 +25684,7 @@
         <v>88417</v>
       </c>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>258</v>
       </c>
@@ -25703,29 +25706,37 @@
       <c r="G302" s="2">
         <v>5.6</v>
       </c>
-      <c r="H302" s="10">
+      <c r="H302" s="1">
         <v>3.9900000100000002</v>
       </c>
-      <c r="I302">
+      <c r="I302" s="2">
         <v>9.6300001144409197</v>
       </c>
-      <c r="J302" s="10">
+      <c r="J302" s="1">
         <v>30283.7942</v>
       </c>
-      <c r="L302">
+      <c r="K302" s="9">
+        <v>248709873</v>
+      </c>
+      <c r="L302" s="2">
         <v>38842.250940301274</v>
       </c>
-      <c r="M302"/>
-      <c r="N302">
+      <c r="M302" s="11">
+        <v>281421906</v>
+      </c>
+      <c r="N302" s="2">
         <v>40991.684257259141</v>
       </c>
-      <c r="P302" s="11">
+      <c r="O302" s="11">
+        <v>308745538</v>
+      </c>
+      <c r="P302" s="10">
         <v>0.7843</v>
       </c>
-      <c r="Q302" s="11">
+      <c r="Q302" s="10">
         <v>0.84099999999999997</v>
       </c>
-      <c r="R302" s="11">
+      <c r="R302" s="10">
         <v>0.87139999999999995</v>
       </c>
     </row>
